--- a/source/input/configuration/default-ts-single-Tx_var.xlsx
+++ b/source/input/configuration/default-ts-single-Tx_var.xlsx
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>RMSH_cm</t>
-  </si>
-  <si>
-    <t>DOY</t>
-  </si>
-  <si>
-    <t>VSM_cm3cm3</t>
-  </si>
-  <si>
     <t>sand_ratio</t>
   </si>
   <si>
@@ -40,10 +31,19 @@
     <t>rho_b (g/cm3)</t>
   </si>
   <si>
-    <t>th0_Tx_deg</t>
+    <t>DoY</t>
   </si>
   <si>
-    <t>ph0_Tx_deg</t>
+    <t>Tx_th (deg)</t>
+  </si>
+  <si>
+    <t>Tx_ph (deg)</t>
+  </si>
+  <si>
+    <t>RMSH (cm)</t>
+  </si>
+  <si>
+    <t>VSM (cm3/cm3)</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -364,49 +364,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:E406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>123.72916669999999</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>200</v>
       </c>
       <c r="D2" s="1">
@@ -416,154 +415,154 @@
         <v>0.37388011999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>123.73958330000001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>40</v>
       </c>
       <c r="E3" s="1">
         <v>0.37388011999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>123.75</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>40.1</v>
       </c>
       <c r="E4" s="1">
         <v>0.37492744</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>123.76041669999999</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>40.4</v>
       </c>
       <c r="E5" s="1">
         <v>0.37142836600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>123.77083330000001</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>39.6</v>
       </c>
       <c r="E6" s="1">
         <v>0.36949404299999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>123.78125</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>39.6</v>
       </c>
       <c r="E7" s="1">
         <v>0.36949404299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>123.79166669999999</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>39.799999999999997</v>
       </c>
       <c r="E8" s="1">
         <v>0.36949404299999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>123.80208330000001</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>39.700000000000003</v>
       </c>
       <c r="E9" s="1">
         <v>0.36967018099999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>123.8125</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>39.4</v>
       </c>
       <c r="E10" s="1">
         <v>0.36967018099999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>123.82291669999999</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>0.36967018099999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>123.83333330000001</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>40.299999999999997</v>
       </c>
       <c r="E12" s="1">
         <v>0.36967018099999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>123.84375</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>41.3</v>
       </c>
       <c r="E13" s="1">
         <v>0.36958211899999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>123.85416669999999</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>41.8</v>
       </c>
       <c r="E14" s="1">
         <v>0.37230528499999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>123.86458330000001</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>42.6</v>
       </c>
       <c r="E15" s="1">
         <v>0.37221765800000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>123.875</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>41.2</v>
       </c>
       <c r="E16" s="1">
@@ -574,7 +573,7 @@
       <c r="A17" s="1">
         <v>123.88541669999999</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>42.8</v>
       </c>
       <c r="E17" s="1">
@@ -585,7 +584,7 @@
       <c r="A18" s="1">
         <v>123.89583330000001</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>42.8</v>
       </c>
       <c r="E18" s="1">
@@ -596,7 +595,7 @@
       <c r="A19" s="1">
         <v>123.90625</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>44.6</v>
       </c>
       <c r="E19" s="1">
@@ -607,7 +606,7 @@
       <c r="A20" s="1">
         <v>123.91666669999999</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>44.5</v>
       </c>
       <c r="E20" s="1">
@@ -618,7 +617,7 @@
       <c r="A21" s="1">
         <v>123.92708330000001</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>45.5</v>
       </c>
       <c r="E21" s="1">
@@ -629,7 +628,7 @@
       <c r="A22" s="1">
         <v>123.9375</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>45.5</v>
       </c>
       <c r="E22" s="1">
@@ -640,7 +639,7 @@
       <c r="A23" s="1">
         <v>123.94791669999999</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>46.5</v>
       </c>
       <c r="E23" s="1">
@@ -651,7 +650,7 @@
       <c r="A24" s="1">
         <v>123.95833330000001</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>47.5</v>
       </c>
       <c r="E24" s="1">
@@ -662,7 +661,7 @@
       <c r="A25" s="1">
         <v>123.96875</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>48.3</v>
       </c>
       <c r="E25" s="1">
@@ -673,7 +672,7 @@
       <c r="A26" s="1">
         <v>123.97916669999999</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>47.1</v>
       </c>
       <c r="E26" s="1">
@@ -684,7 +683,7 @@
       <c r="A27" s="1">
         <v>123.98958330000001</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>48.5</v>
       </c>
       <c r="E27" s="1">
@@ -695,7 +694,7 @@
       <c r="A28" s="1">
         <v>124</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>49.3</v>
       </c>
       <c r="E28" s="1">
@@ -706,7 +705,7 @@
       <c r="A29" s="1">
         <v>124.01041669999999</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>49.6</v>
       </c>
       <c r="E29" s="1">
@@ -717,7 +716,7 @@
       <c r="A30" s="1">
         <v>124.02083330000001</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>49.6</v>
       </c>
       <c r="E30" s="1">
@@ -728,7 +727,7 @@
       <c r="A31" s="1">
         <v>124.03125</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>49.3</v>
       </c>
       <c r="E31" s="1">
@@ -739,7 +738,7 @@
       <c r="A32" s="1">
         <v>124.04166669999999</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>49.5</v>
       </c>
       <c r="E32" s="1">
@@ -750,7 +749,7 @@
       <c r="A33" s="1">
         <v>124.05208330000001</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>49.3</v>
       </c>
       <c r="E33" s="1">
@@ -761,7 +760,7 @@
       <c r="A34" s="1">
         <v>124.0625</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>49.5</v>
       </c>
       <c r="E34" s="1">
@@ -772,7 +771,7 @@
       <c r="A35" s="1">
         <v>124.07291669999999</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>49.5</v>
       </c>
       <c r="E35" s="1">
@@ -783,7 +782,7 @@
       <c r="A36" s="1">
         <v>124.08333330000001</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>48.1</v>
       </c>
       <c r="E36" s="1">
@@ -794,7 +793,7 @@
       <c r="A37" s="1">
         <v>124.09375</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>47.1</v>
       </c>
       <c r="E37" s="1">
@@ -805,7 +804,7 @@
       <c r="A38" s="1">
         <v>124.10416669999999</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>48</v>
       </c>
       <c r="E38" s="1">
@@ -816,7 +815,7 @@
       <c r="A39" s="1">
         <v>124.11458330000001</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>47.5</v>
       </c>
       <c r="E39" s="1">
@@ -827,7 +826,7 @@
       <c r="A40" s="1">
         <v>124.125</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>47.1</v>
       </c>
       <c r="E40" s="1">
@@ -838,7 +837,7 @@
       <c r="A41" s="1">
         <v>124.13541669999999</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>44.4</v>
       </c>
       <c r="E41" s="1">
@@ -849,7 +848,7 @@
       <c r="A42" s="1">
         <v>124.14583330000001</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>50</v>
       </c>
       <c r="E42" s="1">
@@ -860,7 +859,7 @@
       <c r="A43" s="1">
         <v>124.15625</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>43.9</v>
       </c>
       <c r="E43" s="1">
@@ -871,7 +870,7 @@
       <c r="A44" s="1">
         <v>124.16666669999999</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>44.4</v>
       </c>
       <c r="E44" s="1">
@@ -882,7 +881,7 @@
       <c r="A45" s="1">
         <v>124.17708330000001</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>43.4</v>
       </c>
       <c r="E45" s="1">
@@ -893,7 +892,7 @@
       <c r="A46" s="1">
         <v>124.1875</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>42.2</v>
       </c>
       <c r="E46" s="1">
@@ -904,7 +903,7 @@
       <c r="A47" s="1">
         <v>124.19791669999999</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>42.3</v>
       </c>
       <c r="E47" s="1">
@@ -915,7 +914,7 @@
       <c r="A48" s="1">
         <v>124.20833330000001</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>40.9</v>
       </c>
       <c r="E48" s="1">
@@ -926,7 +925,7 @@
       <c r="A49" s="1">
         <v>124.21875</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>42.1</v>
       </c>
       <c r="E49" s="1">
@@ -937,7 +936,7 @@
       <c r="A50" s="1">
         <v>124.22916669999999</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>40.799999999999997</v>
       </c>
       <c r="E50" s="1">
@@ -948,7 +947,7 @@
       <c r="A51" s="1">
         <v>124.23958330000001</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>40.299999999999997</v>
       </c>
       <c r="E51" s="1">
@@ -959,7 +958,7 @@
       <c r="A52" s="1">
         <v>124.25</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>39.9</v>
       </c>
       <c r="E52" s="1">
@@ -970,7 +969,7 @@
       <c r="A53" s="1">
         <v>124.26041669999999</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>39.799999999999997</v>
       </c>
       <c r="E53" s="1">
@@ -981,7 +980,7 @@
       <c r="A54" s="1">
         <v>124.27083330000001</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>39</v>
       </c>
       <c r="E54" s="1">
@@ -992,7 +991,7 @@
       <c r="A55" s="1">
         <v>124.28125</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>39.4</v>
       </c>
       <c r="E55" s="1">
@@ -1003,7 +1002,7 @@
       <c r="A56" s="1">
         <v>124.29166669999999</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>39.4</v>
       </c>
       <c r="E56" s="1">
@@ -1014,7 +1013,7 @@
       <c r="A57" s="1">
         <v>124.30208330000001</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>39.6</v>
       </c>
       <c r="E57" s="1">
@@ -1025,7 +1024,7 @@
       <c r="A58" s="1">
         <v>124.3125</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>39.5</v>
       </c>
       <c r="E58" s="1">
@@ -1036,7 +1035,7 @@
       <c r="A59" s="1">
         <v>124.32291669999999</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>39.799999999999997</v>
       </c>
       <c r="E59" s="1">
@@ -1047,7 +1046,7 @@
       <c r="A60" s="1">
         <v>124.33333330000001</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>40.6</v>
       </c>
       <c r="E60" s="1">
@@ -1058,7 +1057,7 @@
       <c r="A61" s="1">
         <v>124.34375</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>41.2</v>
       </c>
       <c r="E61" s="1">
@@ -1069,7 +1068,7 @@
       <c r="A62" s="1">
         <v>124.35416669999999</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>41.6</v>
       </c>
       <c r="E62" s="1">
@@ -1080,7 +1079,7 @@
       <c r="A63" s="1">
         <v>124.36458330000001</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>41.8</v>
       </c>
       <c r="E63" s="1">
@@ -1091,7 +1090,7 @@
       <c r="A64" s="1">
         <v>124.375</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>41.8</v>
       </c>
       <c r="E64" s="1">
@@ -1102,7 +1101,7 @@
       <c r="A65" s="1">
         <v>124.38541669999999</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>42.3</v>
       </c>
       <c r="E65" s="1">
@@ -1113,7 +1112,7 @@
       <c r="A66" s="1">
         <v>124.39583330000001</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>42.1</v>
       </c>
       <c r="E66" s="1">
@@ -1124,7 +1123,7 @@
       <c r="A67" s="1">
         <v>124.40625</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>44.7</v>
       </c>
       <c r="E67" s="1">
@@ -1135,7 +1134,7 @@
       <c r="A68" s="1">
         <v>124.41666669999999</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>44.1</v>
       </c>
       <c r="E68" s="1">
@@ -1146,7 +1145,7 @@
       <c r="A69" s="1">
         <v>124.42708330000001</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>45.8</v>
       </c>
       <c r="E69" s="1">
@@ -1157,7 +1156,7 @@
       <c r="A70" s="1">
         <v>124.4375</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>45</v>
       </c>
       <c r="E70" s="1">
@@ -1168,7 +1167,7 @@
       <c r="A71" s="1">
         <v>124.44791669999999</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>46.6</v>
       </c>
       <c r="E71" s="1">
@@ -1179,7 +1178,7 @@
       <c r="A72" s="1">
         <v>124.45833330000001</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>47.5</v>
       </c>
       <c r="E72" s="1">
@@ -1190,7 +1189,7 @@
       <c r="A73" s="1">
         <v>124.46875</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>48</v>
       </c>
       <c r="E73" s="1">
@@ -1201,7 +1200,7 @@
       <c r="A74" s="1">
         <v>124.47916669999999</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>47</v>
       </c>
       <c r="E74" s="1">
@@ -1212,7 +1211,7 @@
       <c r="A75" s="1">
         <v>124.48958330000001</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>47.8</v>
       </c>
       <c r="E75" s="1">
@@ -1223,7 +1222,7 @@
       <c r="A76" s="1">
         <v>124.5</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>49.6</v>
       </c>
       <c r="E76" s="1">
@@ -1234,7 +1233,7 @@
       <c r="A77" s="1">
         <v>124.51041669999999</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>49.5</v>
       </c>
       <c r="E77" s="1">
@@ -1245,7 +1244,7 @@
       <c r="A78" s="1">
         <v>124.52083330000001</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>49.2</v>
       </c>
       <c r="E78" s="1">
@@ -1256,7 +1255,7 @@
       <c r="A79" s="1">
         <v>124.53125</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>49.2</v>
       </c>
       <c r="E79" s="1">
@@ -1267,7 +1266,7 @@
       <c r="A80" s="1">
         <v>124.54166669999999</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>49.5</v>
       </c>
       <c r="E80" s="1">
@@ -1278,7 +1277,7 @@
       <c r="A81" s="1">
         <v>124.55208330000001</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>49.3</v>
       </c>
       <c r="E81" s="1">
@@ -1289,7 +1288,7 @@
       <c r="A82" s="1">
         <v>124.5625</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>49.6</v>
       </c>
       <c r="E82" s="1">
@@ -1300,7 +1299,7 @@
       <c r="A83" s="1">
         <v>124.57291669999999</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>49.2</v>
       </c>
       <c r="E83" s="1">
@@ -1311,7 +1310,7 @@
       <c r="A84" s="1">
         <v>124.58333330000001</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>47.2</v>
       </c>
       <c r="E84" s="1">
@@ -1322,7 +1321,7 @@
       <c r="A85" s="1">
         <v>124.59375</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>47.5</v>
       </c>
       <c r="E85" s="1">
@@ -1333,7 +1332,7 @@
       <c r="A86" s="1">
         <v>124.60416669999999</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>47.9</v>
       </c>
       <c r="E86" s="1">
@@ -1344,7 +1343,7 @@
       <c r="A87" s="1">
         <v>124.61458330000001</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>46.6</v>
       </c>
       <c r="E87" s="1">
@@ -1355,7 +1354,7 @@
       <c r="A88" s="1">
         <v>124.625</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>46.7</v>
       </c>
       <c r="E88" s="1">
@@ -1366,7 +1365,7 @@
       <c r="A89" s="1">
         <v>124.63541669999999</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>44.6</v>
       </c>
       <c r="E89" s="1">
@@ -1377,7 +1376,7 @@
       <c r="A90" s="1">
         <v>124.64583330000001</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>45.6</v>
       </c>
       <c r="E90" s="1">
@@ -1388,7 +1387,7 @@
       <c r="A91" s="1">
         <v>124.65625</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>44.7</v>
       </c>
       <c r="E91" s="1">
@@ -1399,7 +1398,7 @@
       <c r="A92" s="1">
         <v>124.66666669999999</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>43.4</v>
       </c>
       <c r="E92" s="1">
@@ -1410,7 +1409,7 @@
       <c r="A93" s="1">
         <v>124.67708330000001</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>43.5</v>
       </c>
       <c r="E93" s="1">
@@ -1421,7 +1420,7 @@
       <c r="A94" s="1">
         <v>124.6875</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>42.5</v>
       </c>
       <c r="E94" s="1">
@@ -1432,7 +1431,7 @@
       <c r="A95" s="1">
         <v>124.69791669999999</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>40.4</v>
       </c>
       <c r="E95" s="1">
@@ -1443,7 +1442,7 @@
       <c r="A96" s="1">
         <v>124.70833330000001</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>41.5</v>
       </c>
       <c r="E96" s="1">
@@ -1454,7 +1453,7 @@
       <c r="A97" s="1">
         <v>124.71875</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>40.299999999999997</v>
       </c>
       <c r="E97" s="1">
@@ -1465,7 +1464,7 @@
       <c r="A98" s="1">
         <v>124.72916669999999</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>39.200000000000003</v>
       </c>
       <c r="E98" s="1">
@@ -1476,7 +1475,7 @@
       <c r="A99" s="1">
         <v>124.73958330000001</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>39.4</v>
       </c>
       <c r="E99" s="1">
@@ -1487,7 +1486,7 @@
       <c r="A100" s="1">
         <v>124.75</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>39.700000000000003</v>
       </c>
       <c r="E100" s="1">
@@ -1498,7 +1497,7 @@
       <c r="A101" s="1">
         <v>124.76041669999999</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>39.700000000000003</v>
       </c>
       <c r="E101" s="1">
@@ -1509,7 +1508,7 @@
       <c r="A102" s="1">
         <v>124.77083330000001</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>39.5</v>
       </c>
       <c r="E102" s="1">
@@ -1520,7 +1519,7 @@
       <c r="A103" s="1">
         <v>124.78125</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>39.6</v>
       </c>
       <c r="E103" s="1">
@@ -1531,7 +1530,7 @@
       <c r="A104" s="1">
         <v>124.79166669999999</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>40</v>
       </c>
       <c r="E104" s="1">
@@ -1542,7 +1541,7 @@
       <c r="A105" s="1">
         <v>124.80208330000001</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>41.2</v>
       </c>
       <c r="E105" s="1">
@@ -1553,7 +1552,7 @@
       <c r="A106" s="1">
         <v>124.8125</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>42.1</v>
       </c>
       <c r="E106" s="1">
@@ -1564,7 +1563,7 @@
       <c r="A107" s="1">
         <v>124.82291669999999</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>42.3</v>
       </c>
       <c r="E107" s="1">
@@ -1575,7 +1574,7 @@
       <c r="A108" s="1">
         <v>124.83333330000001</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>41.4</v>
       </c>
       <c r="E108" s="1">
@@ -1586,7 +1585,7 @@
       <c r="A109" s="1">
         <v>124.84375</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>42.8</v>
       </c>
       <c r="E109" s="1">
@@ -1597,7 +1596,7 @@
       <c r="A110" s="1">
         <v>124.85416669999999</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>44.4</v>
       </c>
       <c r="E110" s="1">
@@ -1608,7 +1607,7 @@
       <c r="A111" s="1">
         <v>124.86458330000001</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>44.7</v>
       </c>
       <c r="E111" s="1">
@@ -1619,7 +1618,7 @@
       <c r="A112" s="1">
         <v>124.875</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>40.6</v>
       </c>
       <c r="E112" s="1">
@@ -1630,7 +1629,7 @@
       <c r="A113" s="1">
         <v>124.88541669999999</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>37.700000000000003</v>
       </c>
       <c r="E113" s="1">
@@ -1641,7 +1640,7 @@
       <c r="A114" s="1">
         <v>124.89583330000001</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>38.700000000000003</v>
       </c>
       <c r="E114" s="1">
@@ -1652,7 +1651,7 @@
       <c r="A115" s="1">
         <v>124.90625</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>39.6</v>
       </c>
       <c r="E115" s="1">
@@ -1663,7 +1662,7 @@
       <c r="A116" s="1">
         <v>124.91666669999999</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>39</v>
       </c>
       <c r="E116" s="1">
@@ -1674,7 +1673,7 @@
       <c r="A117" s="1">
         <v>124.92708330000001</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>39.799999999999997</v>
       </c>
       <c r="E117" s="1">
@@ -1685,7 +1684,7 @@
       <c r="A118" s="1">
         <v>124.9375</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>38.1</v>
       </c>
       <c r="E118" s="1">
@@ -1696,7 +1695,7 @@
       <c r="A119" s="1">
         <v>124.94791669999999</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>41.1</v>
       </c>
       <c r="E119" s="1">
@@ -1707,7 +1706,7 @@
       <c r="A120" s="1">
         <v>124.95833330000001</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>45.8</v>
       </c>
       <c r="E120" s="1">
@@ -1718,7 +1717,7 @@
       <c r="A121" s="1">
         <v>124.96875</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>42.1</v>
       </c>
       <c r="E121" s="1">
@@ -1729,7 +1728,7 @@
       <c r="A122" s="1">
         <v>124.97916669999999</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>41.5</v>
       </c>
       <c r="E122" s="1">
@@ -1740,7 +1739,7 @@
       <c r="A123" s="1">
         <v>124.98958330000001</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>41.8</v>
       </c>
       <c r="E123" s="1">
@@ -1751,7 +1750,7 @@
       <c r="A124" s="1">
         <v>125</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>42.2</v>
       </c>
       <c r="E124" s="1">
@@ -1762,7 +1761,7 @@
       <c r="A125" s="1">
         <v>125.01041669999999</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>43.8</v>
       </c>
       <c r="E125" s="1">
@@ -1773,7 +1772,7 @@
       <c r="A126" s="1">
         <v>125.02083330000001</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>43.6</v>
       </c>
       <c r="E126" s="1">
@@ -1784,7 +1783,7 @@
       <c r="A127" s="1">
         <v>125.03125</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>45</v>
       </c>
       <c r="E127" s="1">
@@ -1795,7 +1794,7 @@
       <c r="A128" s="1">
         <v>125.04166669999999</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>45</v>
       </c>
       <c r="E128" s="1">
@@ -1806,7 +1805,7 @@
       <c r="A129" s="1">
         <v>125.05208330000001</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>45.8</v>
       </c>
       <c r="E129" s="1">
@@ -1817,7 +1816,7 @@
       <c r="A130" s="1">
         <v>125.0625</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>46.7</v>
       </c>
       <c r="E130" s="1">
@@ -1828,7 +1827,7 @@
       <c r="A131" s="1">
         <v>125.07291669999999</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>47.1</v>
       </c>
       <c r="E131" s="1">
@@ -1839,7 +1838,7 @@
       <c r="A132" s="1">
         <v>125.08333330000001</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>47.8</v>
       </c>
       <c r="E132" s="1">
@@ -1850,7 +1849,7 @@
       <c r="A133" s="1">
         <v>125.09375</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>47.5</v>
       </c>
       <c r="E133" s="1">
@@ -1861,7 +1860,7 @@
       <c r="A134" s="1">
         <v>125.10416669999999</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>48</v>
       </c>
       <c r="E134" s="1">
@@ -1872,7 +1871,7 @@
       <c r="A135" s="1">
         <v>125.11458330000001</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>49.5</v>
       </c>
       <c r="E135" s="1">
@@ -1883,7 +1882,7 @@
       <c r="A136" s="1">
         <v>125.125</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>49.7</v>
       </c>
       <c r="E136" s="1">
@@ -1894,7 +1893,7 @@
       <c r="A137" s="1">
         <v>125.13541669999999</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>49.3</v>
       </c>
       <c r="E137" s="1">
@@ -1905,7 +1904,7 @@
       <c r="A138" s="1">
         <v>125.14583330000001</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>49.3</v>
       </c>
       <c r="E138" s="1">
@@ -1916,7 +1915,7 @@
       <c r="A139" s="1">
         <v>125.15625</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
         <v>49.3</v>
       </c>
       <c r="E139" s="1">
@@ -1927,7 +1926,7 @@
       <c r="A140" s="1">
         <v>125.16666669999999</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>48.8</v>
       </c>
       <c r="E140" s="1">
@@ -1938,7 +1937,7 @@
       <c r="A141" s="1">
         <v>125.17708330000001</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>49.3</v>
       </c>
       <c r="E141" s="1">
@@ -1949,7 +1948,7 @@
       <c r="A142" s="1">
         <v>125.1875</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>49.3</v>
       </c>
       <c r="E142" s="1">
@@ -1960,7 +1959,7 @@
       <c r="A143" s="1">
         <v>125.19791669999999</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>49.1</v>
       </c>
       <c r="E143" s="1">
@@ -1971,7 +1970,7 @@
       <c r="A144" s="1">
         <v>125.20833330000001</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>47.5</v>
       </c>
       <c r="E144" s="1">
@@ -1982,7 +1981,7 @@
       <c r="A145" s="1">
         <v>125.21875</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>47.4</v>
       </c>
       <c r="E145" s="1">
@@ -1993,7 +1992,7 @@
       <c r="A146" s="1">
         <v>125.22916669999999</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>49.1</v>
       </c>
       <c r="E146" s="1">
@@ -2004,7 +2003,7 @@
       <c r="A147" s="1">
         <v>125.23958330000001</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>47</v>
       </c>
       <c r="E147" s="1">
@@ -2015,7 +2014,7 @@
       <c r="A148" s="1">
         <v>125.25</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>46.6</v>
       </c>
       <c r="E148" s="1">
@@ -2026,7 +2025,7 @@
       <c r="A149" s="1">
         <v>125.26041669999999</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>44.7</v>
       </c>
       <c r="E149" s="1">
@@ -2037,7 +2036,7 @@
       <c r="A150" s="1">
         <v>125.27083330000001</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>45</v>
       </c>
       <c r="E150" s="1">
@@ -2048,7 +2047,7 @@
       <c r="A151" s="1">
         <v>125.28125</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
         <v>42.9</v>
       </c>
       <c r="E151" s="1">
@@ -2059,7 +2058,7 @@
       <c r="A152" s="1">
         <v>125.29166669999999</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
         <v>43.9</v>
       </c>
       <c r="E152" s="1">
@@ -2070,7 +2069,7 @@
       <c r="A153" s="1">
         <v>125.30208330000001</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1">
         <v>41.8</v>
       </c>
       <c r="E153" s="1">
@@ -2081,7 +2080,7 @@
       <c r="A154" s="1">
         <v>125.3125</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>42.3</v>
       </c>
       <c r="E154" s="1">
@@ -2092,7 +2091,7 @@
       <c r="A155" s="1">
         <v>125.32291669999999</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>41.9</v>
       </c>
       <c r="E155" s="1">
@@ -2103,7 +2102,7 @@
       <c r="A156" s="1">
         <v>125.33333330000001</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>41.9</v>
       </c>
       <c r="E156" s="1">
@@ -2114,7 +2113,7 @@
       <c r="A157" s="1">
         <v>125.34375</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>40.799999999999997</v>
       </c>
       <c r="E157" s="1">
@@ -2125,7 +2124,7 @@
       <c r="A158" s="1">
         <v>125.35416669999999</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>40.6</v>
       </c>
       <c r="E158" s="1">
@@ -2136,7 +2135,7 @@
       <c r="A159" s="1">
         <v>125.36458330000001</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <v>39.799999999999997</v>
       </c>
       <c r="E159" s="1">
@@ -2147,7 +2146,7 @@
       <c r="A160" s="1">
         <v>125.375</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>38.5</v>
       </c>
       <c r="E160" s="1">
@@ -2158,7 +2157,7 @@
       <c r="A161" s="1">
         <v>125.38541669999999</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>39.200000000000003</v>
       </c>
       <c r="E161" s="1">
@@ -2169,7 +2168,7 @@
       <c r="A162" s="1">
         <v>125.39583330000001</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>38.5</v>
       </c>
       <c r="E162" s="1">
@@ -2180,7 +2179,7 @@
       <c r="A163" s="1">
         <v>125.40625</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>39.4</v>
       </c>
       <c r="E163" s="1">
@@ -2191,7 +2190,7 @@
       <c r="A164" s="1">
         <v>125.41666669999999</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>40.5</v>
       </c>
       <c r="E164" s="1">
@@ -2202,7 +2201,7 @@
       <c r="A165" s="1">
         <v>125.42708330000001</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>40.700000000000003</v>
       </c>
       <c r="E165" s="1">
@@ -2213,7 +2212,7 @@
       <c r="A166" s="1">
         <v>125.4375</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>40.9</v>
       </c>
       <c r="E166" s="1">
@@ -2224,7 +2223,7 @@
       <c r="A167" s="1">
         <v>125.44791669999999</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>43.6</v>
       </c>
       <c r="E167" s="1">
@@ -2235,7 +2234,7 @@
       <c r="A168" s="1">
         <v>125.45833330000001</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>42.3</v>
       </c>
       <c r="E168" s="1">
@@ -2246,7 +2245,7 @@
       <c r="A169" s="1">
         <v>125.46875</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>42.1</v>
       </c>
       <c r="E169" s="1">
@@ -2257,7 +2256,7 @@
       <c r="A170" s="1">
         <v>125.47916669999999</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>43.3</v>
       </c>
       <c r="E170" s="1">
@@ -2268,7 +2267,7 @@
       <c r="A171" s="1">
         <v>125.48958330000001</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>43.2</v>
       </c>
       <c r="E171" s="1">
@@ -2279,7 +2278,7 @@
       <c r="A172" s="1">
         <v>125.5</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>43.8</v>
       </c>
       <c r="E172" s="1">
@@ -2290,7 +2289,7 @@
       <c r="A173" s="1">
         <v>125.51041669999999</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
         <v>44.9</v>
       </c>
       <c r="E173" s="1">
@@ -2301,7 +2300,7 @@
       <c r="A174" s="1">
         <v>125.52083330000001</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="1">
         <v>45.5</v>
       </c>
       <c r="E174" s="1">
@@ -2312,7 +2311,7 @@
       <c r="A175" s="1">
         <v>125.53125</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>45</v>
       </c>
       <c r="E175" s="1">
@@ -2323,7 +2322,7 @@
       <c r="A176" s="1">
         <v>125.54166669999999</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
         <v>46.9</v>
       </c>
       <c r="E176" s="1">
@@ -2334,7 +2333,7 @@
       <c r="A177" s="1">
         <v>125.55208330000001</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>48.4</v>
       </c>
       <c r="E177" s="1">
@@ -2345,7 +2344,7 @@
       <c r="A178" s="1">
         <v>125.5625</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
         <v>47.1</v>
       </c>
       <c r="E178" s="1">
@@ -2356,7 +2355,7 @@
       <c r="A179" s="1">
         <v>125.57291669999999</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>47.5</v>
       </c>
       <c r="E179" s="1">
@@ -2367,7 +2366,7 @@
       <c r="A180" s="1">
         <v>125.58333330000001</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1">
         <v>49.3</v>
       </c>
       <c r="E180" s="1">
@@ -2378,7 +2377,7 @@
       <c r="A181" s="1">
         <v>125.59375</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>49.6</v>
       </c>
       <c r="E181" s="1">
@@ -2389,7 +2388,7 @@
       <c r="A182" s="1">
         <v>125.60416669999999</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1">
         <v>48.7</v>
       </c>
       <c r="E182" s="1">
@@ -2400,7 +2399,7 @@
       <c r="A183" s="1">
         <v>125.61458330000001</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="1">
         <v>47.4</v>
       </c>
       <c r="E183" s="1">
@@ -2411,7 +2410,7 @@
       <c r="A184" s="1">
         <v>125.625</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="1">
         <v>40.6</v>
       </c>
       <c r="E184" s="1">
@@ -2422,7 +2421,7 @@
       <c r="A185" s="1">
         <v>125.63541669999999</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1">
         <v>40.299999999999997</v>
       </c>
       <c r="E185" s="1">
@@ -2433,7 +2432,7 @@
       <c r="A186" s="1">
         <v>125.64583330000001</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1">
         <v>40.6</v>
       </c>
       <c r="E186" s="1">
@@ -2444,7 +2443,7 @@
       <c r="A187" s="1">
         <v>125.65625</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1">
         <v>39.4</v>
       </c>
       <c r="E187" s="1">
@@ -2455,7 +2454,7 @@
       <c r="A188" s="1">
         <v>125.66666669999999</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>39.1</v>
       </c>
       <c r="E188" s="1">
@@ -2466,7 +2465,7 @@
       <c r="A189" s="1">
         <v>125.67708330000001</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1">
         <v>39.6</v>
       </c>
       <c r="E189" s="1">
@@ -2477,7 +2476,7 @@
       <c r="A190" s="1">
         <v>125.6875</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>40.1</v>
       </c>
       <c r="E190" s="1">
@@ -2488,7 +2487,7 @@
       <c r="A191" s="1">
         <v>125.69791669999999</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1">
         <v>39.700000000000003</v>
       </c>
       <c r="E191" s="1">
@@ -2499,7 +2498,7 @@
       <c r="A192" s="1">
         <v>125.70833330000001</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1">
         <v>40.4</v>
       </c>
       <c r="E192" s="1">
@@ -2510,7 +2509,7 @@
       <c r="A193" s="1">
         <v>125.71875</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1">
         <v>40.6</v>
       </c>
       <c r="E193" s="1">
@@ -2521,7 +2520,7 @@
       <c r="A194" s="1">
         <v>125.72916669999999</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="1">
         <v>40.9</v>
       </c>
       <c r="E194" s="1">
@@ -2532,7 +2531,7 @@
       <c r="A195" s="1">
         <v>125.73958330000001</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="1">
         <v>42.7</v>
       </c>
       <c r="E195" s="1">
@@ -2543,7 +2542,7 @@
       <c r="A196" s="1">
         <v>125.75</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="1">
         <v>39.700000000000003</v>
       </c>
       <c r="E196" s="1">
@@ -2554,7 +2553,7 @@
       <c r="A197" s="1">
         <v>125.76041669999999</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="1">
         <v>44.1</v>
       </c>
       <c r="E197" s="1">
@@ -2565,7 +2564,7 @@
       <c r="A198" s="1">
         <v>125.77083330000001</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="1">
         <v>43.1</v>
       </c>
       <c r="E198" s="1">
@@ -2576,7 +2575,7 @@
       <c r="A199" s="1">
         <v>125.78125</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1">
         <v>42.7</v>
       </c>
       <c r="E199" s="1">
@@ -2587,7 +2586,7 @@
       <c r="A200" s="1">
         <v>125.79166669999999</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1">
         <v>44.6</v>
       </c>
       <c r="E200" s="1">
@@ -2598,7 +2597,7 @@
       <c r="A201" s="1">
         <v>125.80208330000001</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="1">
         <v>46.5</v>
       </c>
       <c r="E201" s="1">
@@ -2609,7 +2608,7 @@
       <c r="A202" s="1">
         <v>125.8125</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="1">
         <v>45.4</v>
       </c>
       <c r="E202" s="1">
@@ -2620,7 +2619,7 @@
       <c r="A203" s="1">
         <v>125.82291669999999</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="1">
         <v>47</v>
       </c>
       <c r="E203" s="1">
@@ -2631,7 +2630,7 @@
       <c r="A204" s="1">
         <v>125.83333330000001</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="1">
         <v>47.4</v>
       </c>
       <c r="E204" s="1">
@@ -2642,7 +2641,7 @@
       <c r="A205" s="1">
         <v>125.84375</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="1">
         <v>48.4</v>
       </c>
       <c r="E205" s="1">
@@ -2653,7 +2652,7 @@
       <c r="A206" s="1">
         <v>125.85416669999999</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="1">
         <v>48.5</v>
       </c>
       <c r="E206" s="1">
@@ -2664,7 +2663,7 @@
       <c r="A207" s="1">
         <v>125.86458330000001</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="1">
         <v>50.1</v>
       </c>
       <c r="E207" s="1">
@@ -2675,7 +2674,7 @@
       <c r="A208" s="1">
         <v>125.875</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="1">
         <v>49.9</v>
       </c>
       <c r="E208" s="1">
@@ -2686,7 +2685,7 @@
       <c r="A209" s="1">
         <v>125.88541669999999</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="1">
         <v>48.9</v>
       </c>
       <c r="E209" s="1">
@@ -2697,7 +2696,7 @@
       <c r="A210" s="1">
         <v>125.89583330000001</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="1">
         <v>49.1</v>
       </c>
       <c r="E210" s="1">
@@ -2708,7 +2707,7 @@
       <c r="A211" s="1">
         <v>125.90625</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="1">
         <v>48.5</v>
       </c>
       <c r="E211" s="1">
@@ -2719,7 +2718,7 @@
       <c r="A212" s="1">
         <v>125.91666669999999</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="1">
         <v>48.7</v>
       </c>
       <c r="E212" s="1">
@@ -2730,7 +2729,7 @@
       <c r="A213" s="1">
         <v>125.92708330000001</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="1">
         <v>49.5</v>
       </c>
       <c r="E213" s="1">
@@ -2741,7 +2740,7 @@
       <c r="A214" s="1">
         <v>125.9375</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="1">
         <v>49.5</v>
       </c>
       <c r="E214" s="1">
@@ -2752,7 +2751,7 @@
       <c r="A215" s="1">
         <v>125.94791669999999</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="1">
         <v>48.7</v>
       </c>
       <c r="E215" s="1">
@@ -2763,7 +2762,7 @@
       <c r="A216" s="1">
         <v>125.95833330000001</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="1">
         <v>46</v>
       </c>
       <c r="E216" s="1">
@@ -2774,7 +2773,7 @@
       <c r="A217" s="1">
         <v>125.96875</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="1">
         <v>48.5</v>
       </c>
       <c r="E217" s="1">
@@ -2785,7 +2784,7 @@
       <c r="A218" s="1">
         <v>125.97916669999999</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="1">
         <v>47.5</v>
       </c>
       <c r="E218" s="1">
@@ -2796,7 +2795,7 @@
       <c r="A219" s="1">
         <v>125.98958330000001</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="1">
         <v>46.9</v>
       </c>
       <c r="E219" s="1">
@@ -2807,7 +2806,7 @@
       <c r="A220" s="1">
         <v>126</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="1">
         <v>45.5</v>
       </c>
       <c r="E220" s="1">
@@ -2818,7 +2817,7 @@
       <c r="A221" s="1">
         <v>126.01041669999999</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="1">
         <v>45.2</v>
       </c>
       <c r="E221" s="1">
@@ -2829,7 +2828,7 @@
       <c r="A222" s="1">
         <v>126.02083330000001</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="1">
         <v>44.6</v>
       </c>
       <c r="E222" s="1">
@@ -2840,7 +2839,7 @@
       <c r="A223" s="1">
         <v>126.03125</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="1">
         <v>42.8</v>
       </c>
       <c r="E223" s="1">
@@ -2851,7 +2850,7 @@
       <c r="A224" s="1">
         <v>126.04166669999999</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="1">
         <v>43.3</v>
       </c>
       <c r="E224" s="1">
@@ -2862,7 +2861,7 @@
       <c r="A225" s="1">
         <v>126.05208330000001</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="1">
         <v>41.8</v>
       </c>
       <c r="E225" s="1">
@@ -2873,7 +2872,7 @@
       <c r="A226" s="1">
         <v>126.0625</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="1">
         <v>42.5</v>
       </c>
       <c r="E226" s="1">
@@ -2884,7 +2883,7 @@
       <c r="A227" s="1">
         <v>126.07291669999999</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="1">
         <v>41.9</v>
       </c>
       <c r="E227" s="1">
@@ -2895,7 +2894,7 @@
       <c r="A228" s="1">
         <v>126.08333330000001</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="1">
         <v>40.9</v>
       </c>
       <c r="E228" s="1">
@@ -2906,7 +2905,7 @@
       <c r="A229" s="1">
         <v>126.09375</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="1">
         <v>40.4</v>
       </c>
       <c r="E229" s="1">
@@ -2917,7 +2916,7 @@
       <c r="A230" s="1">
         <v>126.10416669999999</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="1">
         <v>40.700000000000003</v>
       </c>
       <c r="E230" s="1">
@@ -2928,7 +2927,7 @@
       <c r="A231" s="1">
         <v>126.11458330000001</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="1">
         <v>40</v>
       </c>
       <c r="E231" s="1">
@@ -2939,7 +2938,7 @@
       <c r="A232" s="1">
         <v>126.125</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="1">
         <v>39.5</v>
       </c>
       <c r="E232" s="1">
@@ -2950,7 +2949,7 @@
       <c r="A233" s="1">
         <v>126.13541669999999</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="1">
         <v>39.1</v>
       </c>
       <c r="E233" s="1">
@@ -2961,7 +2960,7 @@
       <c r="A234" s="1">
         <v>126.14583330000001</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="1">
         <v>39</v>
       </c>
       <c r="E234" s="1">
@@ -2972,7 +2971,7 @@
       <c r="A235" s="1">
         <v>126.15625</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="1">
         <v>39.799999999999997</v>
       </c>
       <c r="E235" s="1">
@@ -2983,7 +2982,7 @@
       <c r="A236" s="1">
         <v>126.16666669999999</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="1">
         <v>39.799999999999997</v>
       </c>
       <c r="E236" s="1">
@@ -2994,7 +2993,7 @@
       <c r="A237" s="1">
         <v>126.17708330000001</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="1">
         <v>40.4</v>
       </c>
       <c r="E237" s="1">
@@ -3005,7 +3004,7 @@
       <c r="A238" s="1">
         <v>126.1875</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="1">
         <v>41.2</v>
       </c>
       <c r="E238" s="1">
@@ -3016,7 +3015,7 @@
       <c r="A239" s="1">
         <v>126.19791669999999</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="1">
         <v>41.3</v>
       </c>
       <c r="E239" s="1">
@@ -3027,7 +3026,7 @@
       <c r="A240" s="1">
         <v>126.20833330000001</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="1">
         <v>42.6</v>
       </c>
       <c r="E240" s="1">
@@ -3038,7 +3037,7 @@
       <c r="A241" s="1">
         <v>126.21875</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="1">
         <v>43.1</v>
       </c>
       <c r="E241" s="1">
@@ -3049,7 +3048,7 @@
       <c r="A242" s="1">
         <v>126.22916669999999</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="1">
         <v>45</v>
       </c>
       <c r="E242" s="1">
@@ -3060,7 +3059,7 @@
       <c r="A243" s="1">
         <v>126.23958330000001</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="1">
         <v>44.1</v>
       </c>
       <c r="E243" s="1">
@@ -3071,7 +3070,7 @@
       <c r="A244" s="1">
         <v>126.25</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="1">
         <v>46</v>
       </c>
       <c r="E244" s="1">
@@ -3082,7 +3081,7 @@
       <c r="A245" s="1">
         <v>126.26041669999999</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="1">
         <v>47</v>
       </c>
       <c r="E245" s="1">
@@ -3093,7 +3092,7 @@
       <c r="A246" s="1">
         <v>126.27083330000001</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="1">
         <v>47.8</v>
       </c>
       <c r="E246" s="1">
@@ -3104,7 +3103,7 @@
       <c r="A247" s="1">
         <v>126.28125</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="1">
         <v>47.8</v>
       </c>
       <c r="E247" s="1">
@@ -3115,7 +3114,7 @@
       <c r="A248" s="1">
         <v>126.29166669999999</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="1">
         <v>46.7</v>
       </c>
       <c r="E248" s="1">
@@ -3126,7 +3125,7 @@
       <c r="A249" s="1">
         <v>126.30208330000001</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="1">
         <v>49.1</v>
       </c>
       <c r="E249" s="1">
@@ -3137,7 +3136,7 @@
       <c r="A250" s="1">
         <v>126.3125</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="1">
         <v>50</v>
       </c>
       <c r="E250" s="1">
@@ -3148,7 +3147,7 @@
       <c r="A251" s="1">
         <v>126.32291669999999</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="1">
         <v>48.8</v>
       </c>
       <c r="E251" s="1">
@@ -3159,7 +3158,7 @@
       <c r="A252" s="1">
         <v>126.33333330000001</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="1">
         <v>48.5</v>
       </c>
       <c r="E252" s="1">
@@ -3170,7 +3169,7 @@
       <c r="A253" s="1">
         <v>126.34375</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="1">
         <v>48.5</v>
       </c>
       <c r="E253" s="1">
@@ -3181,7 +3180,7 @@
       <c r="A254" s="1">
         <v>126.35416669999999</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="1">
         <v>49.2</v>
       </c>
       <c r="E254" s="1">
@@ -3192,7 +3191,7 @@
       <c r="A255" s="1">
         <v>126.36458330000001</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="1">
         <v>49.9</v>
       </c>
       <c r="E255" s="1">
@@ -3203,7 +3202,7 @@
       <c r="A256" s="1">
         <v>126.375</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="1">
         <v>48.5</v>
       </c>
       <c r="E256" s="1">
@@ -3214,7 +3213,7 @@
       <c r="A257" s="1">
         <v>126.38541669999999</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="1">
         <v>46.3</v>
       </c>
       <c r="E257" s="1">
@@ -3225,7 +3224,7 @@
       <c r="A258" s="1">
         <v>126.39583330000001</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="1">
         <v>48</v>
       </c>
       <c r="E258" s="1">
@@ -3236,7 +3235,7 @@
       <c r="A259" s="1">
         <v>126.40625</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="1">
         <v>47.2</v>
       </c>
       <c r="E259" s="1">
@@ -3247,7 +3246,7 @@
       <c r="A260" s="1">
         <v>126.41666669999999</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="1">
         <v>46.9</v>
       </c>
       <c r="E260" s="1">
@@ -3258,7 +3257,7 @@
       <c r="A261" s="1">
         <v>126.42708330000001</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="1">
         <v>46.1</v>
       </c>
       <c r="E261" s="1">
@@ -3269,7 +3268,7 @@
       <c r="A262" s="1">
         <v>126.4375</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="1">
         <v>45.2</v>
       </c>
       <c r="E262" s="1">
@@ -3280,7 +3279,7 @@
       <c r="A263" s="1">
         <v>126.44791669999999</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="1">
         <v>44.7</v>
       </c>
       <c r="E263" s="1">
@@ -3291,7 +3290,7 @@
       <c r="A264" s="1">
         <v>126.45833330000001</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="1">
         <v>45.6</v>
       </c>
       <c r="E264" s="1">
@@ -3302,7 +3301,7 @@
       <c r="A265" s="1">
         <v>126.46875</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="1">
         <v>43.1</v>
       </c>
       <c r="E265" s="1">
@@ -3313,7 +3312,7 @@
       <c r="A266" s="1">
         <v>126.47916669999999</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="1">
         <v>42.9</v>
       </c>
       <c r="E266" s="1">
@@ -3324,7 +3323,7 @@
       <c r="A267" s="1">
         <v>126.48958330000001</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="1">
         <v>42.2</v>
       </c>
       <c r="E267" s="1">
@@ -3335,7 +3334,7 @@
       <c r="A268" s="1">
         <v>126.5</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="1">
         <v>42.3</v>
       </c>
       <c r="E268" s="1">
@@ -3346,7 +3345,7 @@
       <c r="A269" s="1">
         <v>126.51041669999999</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="1">
         <v>42.1</v>
       </c>
       <c r="E269" s="1">
@@ -3357,7 +3356,7 @@
       <c r="A270" s="1">
         <v>126.52083330000001</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="1">
         <v>41.6</v>
       </c>
       <c r="E270" s="1">
@@ -3368,7 +3367,7 @@
       <c r="A271" s="1">
         <v>126.53125</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="1">
         <v>40.5</v>
       </c>
       <c r="E271" s="1">
@@ -3379,7 +3378,7 @@
       <c r="A272" s="1">
         <v>126.54166669999999</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="1">
         <v>40.5</v>
       </c>
       <c r="E272" s="1">
@@ -3390,7 +3389,7 @@
       <c r="A273" s="1">
         <v>126.55208330000001</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="1">
         <v>38.4</v>
       </c>
       <c r="E273" s="1">
@@ -3401,7 +3400,7 @@
       <c r="A274" s="1">
         <v>126.5625</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="1">
         <v>39.9</v>
       </c>
       <c r="E274" s="1">
@@ -3412,7 +3411,7 @@
       <c r="A275" s="1">
         <v>126.57291669999999</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="1">
         <v>40.1</v>
       </c>
       <c r="E275" s="1">
@@ -3423,7 +3422,7 @@
       <c r="A276" s="1">
         <v>126.58333330000001</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="1">
         <v>39.9</v>
       </c>
       <c r="E276" s="1">
@@ -3434,7 +3433,7 @@
       <c r="A277" s="1">
         <v>126.59375</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="1">
         <v>39.799999999999997</v>
       </c>
       <c r="E277" s="1">
@@ -3445,7 +3444,7 @@
       <c r="A278" s="1">
         <v>126.60416669999999</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="1">
         <v>40.5</v>
       </c>
       <c r="E278" s="1">
@@ -3456,7 +3455,7 @@
       <c r="A279" s="1">
         <v>126.61458330000001</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="1">
         <v>40.799999999999997</v>
       </c>
       <c r="E279" s="1">
@@ -3467,7 +3466,7 @@
       <c r="A280" s="1">
         <v>126.625</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="1">
         <v>41.4</v>
       </c>
       <c r="E280" s="1">
@@ -3478,7 +3477,7 @@
       <c r="A281" s="1">
         <v>126.63541669999999</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="1">
         <v>42</v>
       </c>
       <c r="E281" s="1">
@@ -3489,7 +3488,7 @@
       <c r="A282" s="1">
         <v>126.64583330000001</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="1">
         <v>42.7</v>
       </c>
       <c r="E282" s="1">
@@ -3500,7 +3499,7 @@
       <c r="A283" s="1">
         <v>126.65625</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="1">
         <v>42</v>
       </c>
       <c r="E283" s="1">
@@ -3511,7 +3510,7 @@
       <c r="A284" s="1">
         <v>126.66666669999999</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="1">
         <v>43.3</v>
       </c>
       <c r="E284" s="1">
@@ -3522,7 +3521,7 @@
       <c r="A285" s="1">
         <v>126.67708330000001</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="1">
         <v>43.1</v>
       </c>
       <c r="E285" s="1">
@@ -3533,7 +3532,7 @@
       <c r="A286" s="1">
         <v>126.6875</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="1">
         <v>45.4</v>
       </c>
       <c r="E286" s="1">
@@ -3544,7 +3543,7 @@
       <c r="A287" s="1">
         <v>126.69791669999999</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="1">
         <v>44.6</v>
       </c>
       <c r="E287" s="1">
@@ -3555,7 +3554,7 @@
       <c r="A288" s="1">
         <v>126.70833330000001</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="1">
         <v>47</v>
       </c>
       <c r="E288" s="1">
@@ -3566,7 +3565,7 @@
       <c r="A289" s="1">
         <v>126.71875</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="1">
         <v>46.9</v>
       </c>
       <c r="E289" s="1">
@@ -3577,7 +3576,7 @@
       <c r="A290" s="1">
         <v>126.72916669999999</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="1">
         <v>47.6</v>
       </c>
       <c r="E290" s="1">
@@ -3588,7 +3587,7 @@
       <c r="A291" s="1">
         <v>126.73958330000001</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="1">
         <v>47.5</v>
       </c>
       <c r="E291" s="1">
@@ -3599,7 +3598,7 @@
       <c r="A292" s="1">
         <v>126.75</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="1">
         <v>49.5</v>
       </c>
       <c r="E292" s="1">
@@ -3610,7 +3609,7 @@
       <c r="A293" s="1">
         <v>126.76041669999999</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="1">
         <v>49.9</v>
       </c>
       <c r="E293" s="1">
@@ -3621,7 +3620,7 @@
       <c r="A294" s="1">
         <v>126.77083330000001</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="1">
         <v>49.1</v>
       </c>
       <c r="E294" s="1">
@@ -3632,7 +3631,7 @@
       <c r="A295" s="1">
         <v>126.78125</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="1">
         <v>49.2</v>
       </c>
       <c r="E295" s="1">
@@ -3643,7 +3642,7 @@
       <c r="A296" s="1">
         <v>126.79166669999999</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="1">
         <v>49.2</v>
       </c>
       <c r="E296" s="1">
@@ -3654,7 +3653,7 @@
       <c r="A297" s="1">
         <v>126.80208330000001</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="1">
         <v>49.3</v>
       </c>
       <c r="E297" s="1">
@@ -3665,7 +3664,7 @@
       <c r="A298" s="1">
         <v>126.8125</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="1">
         <v>47</v>
       </c>
       <c r="E298" s="1">
@@ -3676,7 +3675,7 @@
       <c r="A299" s="1">
         <v>126.82291669999999</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="1">
         <v>49.6</v>
       </c>
       <c r="E299" s="1">
@@ -3687,7 +3686,7 @@
       <c r="A300" s="1">
         <v>126.83333330000001</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="1">
         <v>48.4</v>
       </c>
       <c r="E300" s="1">
@@ -3698,7 +3697,7 @@
       <c r="A301" s="1">
         <v>126.84375</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="1">
         <v>47.2</v>
       </c>
       <c r="E301" s="1">
@@ -3709,7 +3708,7 @@
       <c r="A302" s="1">
         <v>126.85416669999999</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="1">
         <v>47.9</v>
       </c>
       <c r="E302" s="1">
@@ -3720,7 +3719,7 @@
       <c r="A303" s="1">
         <v>126.86458330000001</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="1">
         <v>47.6</v>
       </c>
       <c r="E303" s="1">
@@ -3731,7 +3730,7 @@
       <c r="A304" s="1">
         <v>126.875</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="1">
         <v>46.7</v>
       </c>
       <c r="E304" s="1">
@@ -3742,7 +3741,7 @@
       <c r="A305" s="1">
         <v>126.88541669999999</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="1">
         <v>45.8</v>
       </c>
       <c r="E305" s="1">
@@ -3753,7 +3752,7 @@
       <c r="A306" s="1">
         <v>126.89583330000001</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="1">
         <v>45.1</v>
       </c>
       <c r="E306" s="1">
@@ -3764,7 +3763,7 @@
       <c r="A307" s="1">
         <v>126.90625</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="1">
         <v>44.7</v>
       </c>
       <c r="E307" s="1">
@@ -3775,7 +3774,7 @@
       <c r="A308" s="1">
         <v>126.91666669999999</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="1">
         <v>45.2</v>
       </c>
       <c r="E308" s="1">
@@ -3786,7 +3785,7 @@
       <c r="A309" s="1">
         <v>126.92708330000001</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="1">
         <v>43.3</v>
       </c>
       <c r="E309" s="1">
@@ -3797,7 +3796,7 @@
       <c r="A310" s="1">
         <v>126.9375</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="1">
         <v>43.3</v>
       </c>
       <c r="E310" s="1">
@@ -3808,7 +3807,7 @@
       <c r="A311" s="1">
         <v>126.94791669999999</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="1">
         <v>42.2</v>
       </c>
       <c r="E311" s="1">
@@ -3819,7 +3818,7 @@
       <c r="A312" s="1">
         <v>126.95833330000001</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="1">
         <v>42.2</v>
       </c>
       <c r="E312" s="1">
@@ -3830,7 +3829,7 @@
       <c r="A313" s="1">
         <v>126.96875</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="1">
         <v>42</v>
       </c>
       <c r="E313" s="1">
@@ -3841,7 +3840,7 @@
       <c r="A314" s="1">
         <v>126.97916669999999</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="1">
         <v>41.8</v>
       </c>
       <c r="E314" s="1">
@@ -3852,7 +3851,7 @@
       <c r="A315" s="1">
         <v>126.98958330000001</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="1">
         <v>40.700000000000003</v>
       </c>
       <c r="E315" s="1">
@@ -3863,7 +3862,7 @@
       <c r="A316" s="1">
         <v>127</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="1">
         <v>40.5</v>
       </c>
       <c r="E316" s="1">
@@ -3874,7 +3873,7 @@
       <c r="A317" s="1">
         <v>127.01041669999999</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="1">
         <v>40</v>
       </c>
       <c r="E317" s="1">
@@ -3885,7 +3884,7 @@
       <c r="A318" s="1">
         <v>127.02083330000001</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="1">
         <v>39.9</v>
       </c>
       <c r="E318" s="1">
@@ -3896,7 +3895,7 @@
       <c r="A319" s="1">
         <v>127.03125</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="1">
         <v>39.9</v>
       </c>
       <c r="E319" s="1">
@@ -3907,7 +3906,7 @@
       <c r="A320" s="1">
         <v>127.04166669999999</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="1">
         <v>41.1</v>
       </c>
       <c r="E320" s="1">
@@ -3918,7 +3917,7 @@
       <c r="A321" s="1">
         <v>127.05208330000001</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="1">
         <v>40.799999999999997</v>
       </c>
       <c r="E321" s="1">
@@ -3929,7 +3928,7 @@
       <c r="A322" s="1">
         <v>127.0625</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="1">
         <v>41.2</v>
       </c>
       <c r="E322" s="1">
@@ -3940,7 +3939,7 @@
       <c r="A323" s="1">
         <v>127.07291669999999</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="1">
         <v>41.6</v>
       </c>
       <c r="E323" s="1">
@@ -3951,7 +3950,7 @@
       <c r="A324" s="1">
         <v>127.08333330000001</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="1">
         <v>42.2</v>
       </c>
       <c r="E324" s="1">
@@ -3962,7 +3961,7 @@
       <c r="A325" s="1">
         <v>127.09375</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="1">
         <v>42.3</v>
       </c>
       <c r="E325" s="1">
@@ -3973,7 +3972,7 @@
       <c r="A326" s="1">
         <v>127.10416669999999</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="1">
         <v>42.7</v>
       </c>
       <c r="E326" s="1">
@@ -3984,7 +3983,7 @@
       <c r="A327" s="1">
         <v>127.11458330000001</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="1">
         <v>43.4</v>
       </c>
       <c r="E327" s="1">
@@ -3995,7 +3994,7 @@
       <c r="A328" s="1">
         <v>127.125</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="1">
         <v>43.6</v>
       </c>
       <c r="E328" s="1">
@@ -4006,7 +4005,7 @@
       <c r="A329" s="1">
         <v>127.13541669999999</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="1">
         <v>45.2</v>
       </c>
       <c r="E329" s="1">
@@ -4017,7 +4016,7 @@
       <c r="A330" s="1">
         <v>127.14583330000001</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="1">
         <v>44.5</v>
       </c>
       <c r="E330" s="1">
@@ -4028,7 +4027,7 @@
       <c r="A331" s="1">
         <v>127.15625</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="1">
         <v>45.4</v>
       </c>
       <c r="E331" s="1">
@@ -4039,7 +4038,7 @@
       <c r="A332" s="1">
         <v>127.16666669999999</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="1">
         <v>47.4</v>
       </c>
       <c r="E332" s="1">
@@ -4050,7 +4049,7 @@
       <c r="A333" s="1">
         <v>127.17708330000001</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="1">
         <v>47</v>
       </c>
       <c r="E333" s="1">
@@ -4061,7 +4060,7 @@
       <c r="A334" s="1">
         <v>127.1875</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="1">
         <v>47.9</v>
       </c>
       <c r="E334" s="1">
@@ -4072,7 +4071,7 @@
       <c r="A335" s="1">
         <v>127.19791669999999</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="1">
         <v>47.6</v>
       </c>
       <c r="E335" s="1">
@@ -4083,7 +4082,7 @@
       <c r="A336" s="1">
         <v>127.20833330000001</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="1">
         <v>47.8</v>
       </c>
       <c r="E336" s="1">
@@ -4094,7 +4093,7 @@
       <c r="A337" s="1">
         <v>127.21875</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="1">
         <v>49.5</v>
       </c>
       <c r="E337" s="1">
@@ -4105,7 +4104,7 @@
       <c r="A338" s="1">
         <v>127.22916669999999</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="1">
         <v>49.7</v>
       </c>
       <c r="E338" s="1">
@@ -4116,7 +4115,7 @@
       <c r="A339" s="1">
         <v>127.23958330000001</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="1">
         <v>48.9</v>
       </c>
       <c r="E339" s="1">
@@ -4127,7 +4126,7 @@
       <c r="A340" s="1">
         <v>127.25</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="1">
         <v>49.2</v>
       </c>
       <c r="E340" s="1">
@@ -4138,7 +4137,7 @@
       <c r="A341" s="1">
         <v>127.26041669999999</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="1">
         <v>49.3</v>
       </c>
       <c r="E341" s="1">
@@ -4149,7 +4148,7 @@
       <c r="A342" s="1">
         <v>127.27083330000001</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="1">
         <v>49.2</v>
       </c>
       <c r="E342" s="1">
@@ -4160,7 +4159,7 @@
       <c r="A343" s="1">
         <v>127.28125</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="1">
         <v>49.1</v>
       </c>
       <c r="E343" s="1">
@@ -4171,7 +4170,7 @@
       <c r="A344" s="1">
         <v>127.29166669999999</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="1">
         <v>49.5</v>
       </c>
       <c r="E344" s="1">
@@ -4182,7 +4181,7 @@
       <c r="A345" s="1">
         <v>127.30208330000001</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="1">
         <v>49.5</v>
       </c>
       <c r="E345" s="1">
@@ -4193,7 +4192,7 @@
       <c r="A346" s="1">
         <v>127.3125</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="1">
         <v>47</v>
       </c>
       <c r="E346" s="1">
@@ -4204,7 +4203,7 @@
       <c r="A347" s="1">
         <v>127.32291669999999</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="1">
         <v>47.9</v>
       </c>
       <c r="E347" s="1">
@@ -4215,7 +4214,7 @@
       <c r="A348" s="1">
         <v>127.33333330000001</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="1">
         <v>47.1</v>
       </c>
       <c r="E348" s="1">
@@ -4226,7 +4225,7 @@
       <c r="A349" s="1">
         <v>127.34375</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="1">
         <v>47.1</v>
       </c>
       <c r="E349" s="1">
@@ -4237,7 +4236,7 @@
       <c r="A350" s="1">
         <v>127.35416669999999</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="1">
         <v>45.4</v>
       </c>
       <c r="E350" s="1">
@@ -4248,7 +4247,7 @@
       <c r="A351" s="1">
         <v>127.36458330000001</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="1">
         <v>45.4</v>
       </c>
       <c r="E351" s="1">
@@ -4259,7 +4258,7 @@
       <c r="A352" s="1">
         <v>127.375</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="1">
         <v>44.1</v>
       </c>
       <c r="E352" s="1">
@@ -4270,7 +4269,7 @@
       <c r="A353" s="1">
         <v>127.38541669999999</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="1">
         <v>45</v>
       </c>
       <c r="E353" s="1">
@@ -4281,7 +4280,7 @@
       <c r="A354" s="1">
         <v>127.39583330000001</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="1">
         <v>43.4</v>
       </c>
       <c r="E354" s="1">
@@ -4292,7 +4291,7 @@
       <c r="A355" s="1">
         <v>127.40625</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="1">
         <v>42.8</v>
       </c>
       <c r="E355" s="1">
@@ -4303,7 +4302,7 @@
       <c r="A356" s="1">
         <v>127.41666669999999</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="1">
         <v>41.9</v>
       </c>
       <c r="E356" s="1">
@@ -4314,7 +4313,7 @@
       <c r="A357" s="1">
         <v>127.42708330000001</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="1">
         <v>41.5</v>
       </c>
       <c r="E357" s="1">
@@ -4325,7 +4324,7 @@
       <c r="A358" s="1">
         <v>127.4375</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="1">
         <v>41.2</v>
       </c>
       <c r="E358" s="1">
@@ -4336,7 +4335,7 @@
       <c r="A359" s="1">
         <v>127.44791669999999</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="1">
         <v>42</v>
       </c>
       <c r="E359" s="1">
@@ -4347,7 +4346,7 @@
       <c r="A360" s="1">
         <v>127.45833330000001</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="1">
         <v>40.299999999999997</v>
       </c>
       <c r="E360" s="1">
@@ -4358,7 +4357,7 @@
       <c r="A361" s="1">
         <v>127.46875</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="1">
         <v>40.6</v>
       </c>
       <c r="E361" s="1">
@@ -4369,7 +4368,7 @@
       <c r="A362" s="1">
         <v>127.47916669999999</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="1">
         <v>40.5</v>
       </c>
       <c r="E362" s="1">
@@ -4380,7 +4379,7 @@
       <c r="A363" s="1">
         <v>127.48958330000001</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="1">
         <v>39.9</v>
       </c>
       <c r="E363" s="1">
@@ -4391,7 +4390,7 @@
       <c r="A364" s="1">
         <v>127.5</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="1">
         <v>39.9</v>
       </c>
       <c r="E364" s="1">
@@ -4402,7 +4401,7 @@
       <c r="A365" s="1">
         <v>127.51041669999999</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="1">
         <v>39.4</v>
       </c>
       <c r="E365" s="1">
@@ -4413,7 +4412,7 @@
       <c r="A366" s="1">
         <v>127.52083330000001</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="1">
         <v>40.299999999999997</v>
       </c>
       <c r="E366" s="1">
@@ -4424,7 +4423,7 @@
       <c r="A367" s="1">
         <v>127.53125</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="1">
         <v>40.700000000000003</v>
       </c>
       <c r="E367" s="1">
@@ -4435,7 +4434,7 @@
       <c r="A368" s="1">
         <v>127.54166669999999</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="1">
         <v>41.1</v>
       </c>
       <c r="E368" s="1">
@@ -4446,7 +4445,7 @@
       <c r="A369" s="1">
         <v>127.55208330000001</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="1">
         <v>42</v>
       </c>
       <c r="E369" s="1">
@@ -4457,7 +4456,7 @@
       <c r="A370" s="1">
         <v>127.5625</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="1">
         <v>42.1</v>
       </c>
       <c r="E370" s="1">
@@ -4468,7 +4467,7 @@
       <c r="A371" s="1">
         <v>127.57291669999999</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="1">
         <v>42</v>
       </c>
       <c r="E371" s="1">
@@ -4479,7 +4478,7 @@
       <c r="A372" s="1">
         <v>127.58333330000001</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="1">
         <v>42.1</v>
       </c>
       <c r="E372" s="1">
@@ -4490,7 +4489,7 @@
       <c r="A373" s="1">
         <v>127.59375</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="1">
         <v>43.5</v>
       </c>
       <c r="E373" s="1">
@@ -4501,7 +4500,7 @@
       <c r="A374" s="1">
         <v>127.60416669999999</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="1">
         <v>43.8</v>
       </c>
       <c r="E374" s="1">
@@ -4512,7 +4511,7 @@
       <c r="A375" s="1">
         <v>127.61458330000001</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="1">
         <v>45.2</v>
       </c>
       <c r="E375" s="1">
@@ -4523,7 +4522,7 @@
       <c r="A376" s="1">
         <v>127.625</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="1">
         <v>44.4</v>
       </c>
       <c r="E376" s="1">
@@ -4534,7 +4533,7 @@
       <c r="A377" s="1">
         <v>127.63541669999999</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="1">
         <v>46.2</v>
       </c>
       <c r="E377" s="1">
@@ -4545,7 +4544,7 @@
       <c r="A378" s="1">
         <v>127.64583330000001</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="1">
         <v>47.5</v>
       </c>
       <c r="E378" s="1">
@@ -4556,7 +4555,7 @@
       <c r="A379" s="1">
         <v>127.65625</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="1">
         <v>47.2</v>
       </c>
       <c r="E379" s="1">
@@ -4567,7 +4566,7 @@
       <c r="A380" s="1">
         <v>127.66666669999999</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="1">
         <v>47.6</v>
       </c>
       <c r="E380" s="1">
@@ -4578,7 +4577,7 @@
       <c r="A381" s="1">
         <v>127.67708330000001</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="1">
         <v>47.5</v>
       </c>
       <c r="E381" s="1">
@@ -4589,7 +4588,7 @@
       <c r="A382" s="1">
         <v>127.6875</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="1">
         <v>47.8</v>
       </c>
       <c r="E382" s="1">
@@ -4600,7 +4599,7 @@
       <c r="A383" s="1">
         <v>127.69791669999999</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="1">
         <v>48.5</v>
       </c>
       <c r="E383" s="1">
@@ -4611,7 +4610,7 @@
       <c r="A384" s="1">
         <v>127.70833330000001</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="1">
         <v>49.7</v>
       </c>
       <c r="E384" s="1">
@@ -4622,7 +4621,7 @@
       <c r="A385" s="1">
         <v>127.71875</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="1">
         <v>49.5</v>
       </c>
       <c r="E385" s="1">
@@ -4633,7 +4632,7 @@
       <c r="A386" s="1">
         <v>127.72916669999999</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="1">
         <v>49.2</v>
       </c>
       <c r="E386" s="1">
@@ -4644,7 +4643,7 @@
       <c r="A387" s="1">
         <v>127.73958330000001</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="1">
         <v>49.2</v>
       </c>
       <c r="E387" s="1">
@@ -4655,7 +4654,7 @@
       <c r="A388" s="1">
         <v>127.75</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="1">
         <v>49.3</v>
       </c>
       <c r="E388" s="1">
@@ -4666,7 +4665,7 @@
       <c r="A389" s="1">
         <v>127.76041669999999</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="1">
         <v>49.1</v>
       </c>
       <c r="E389" s="1">
@@ -4677,7 +4676,7 @@
       <c r="A390" s="1">
         <v>127.77083330000001</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="1">
         <v>49.3</v>
       </c>
       <c r="E390" s="1">
@@ -4688,7 +4687,7 @@
       <c r="A391" s="1">
         <v>127.78125</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="1">
         <v>48.5</v>
       </c>
       <c r="E391" s="1">
@@ -4699,7 +4698,7 @@
       <c r="A392" s="1">
         <v>127.79166669999999</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="1">
         <v>46.7</v>
       </c>
       <c r="E392" s="1">
@@ -4710,7 +4709,7 @@
       <c r="A393" s="1">
         <v>127.80208330000001</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="1">
         <v>48.1</v>
       </c>
       <c r="E393" s="1">
@@ -4721,7 +4720,7 @@
       <c r="A394" s="1">
         <v>127.8125</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="1">
         <v>48.8</v>
       </c>
       <c r="E394" s="1">
@@ -4732,7 +4731,7 @@
       <c r="A395" s="1">
         <v>127.82291669999999</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="1">
         <v>45.1</v>
       </c>
       <c r="E395" s="1">
@@ -4743,7 +4742,7 @@
       <c r="A396" s="1">
         <v>127.83333330000001</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="1">
         <v>47.2</v>
       </c>
       <c r="E396" s="1">
@@ -4754,7 +4753,7 @@
       <c r="A397" s="1">
         <v>127.84375</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="1">
         <v>44.6</v>
       </c>
       <c r="E397" s="1">
@@ -4765,7 +4764,7 @@
       <c r="A398" s="1">
         <v>127.85416669999999</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="1">
         <v>45.8</v>
       </c>
       <c r="E398" s="1">
@@ -4776,7 +4775,7 @@
       <c r="A399" s="1">
         <v>127.86458330000001</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="1">
         <v>43.4</v>
       </c>
       <c r="E399" s="1">
@@ -4787,7 +4786,7 @@
       <c r="A400" s="1">
         <v>127.875</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="1">
         <v>43.1</v>
       </c>
       <c r="E400" s="1">
@@ -4798,7 +4797,7 @@
       <c r="A401" s="1">
         <v>127.88541669999999</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="1">
         <v>43.2</v>
       </c>
       <c r="E401" s="1">
@@ -4809,7 +4808,7 @@
       <c r="A402" s="1">
         <v>127.89583330000001</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="1">
         <v>42.5</v>
       </c>
       <c r="E402" s="1">
@@ -4820,7 +4819,7 @@
       <c r="A403" s="1">
         <v>127.90625</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="1">
         <v>43.1</v>
       </c>
       <c r="E403" s="1">
@@ -4831,7 +4830,7 @@
       <c r="A404" s="1">
         <v>127.91666669999999</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="1">
         <v>41.2</v>
       </c>
       <c r="E404" s="1">
@@ -4842,7 +4841,7 @@
       <c r="A405" s="1">
         <v>127.92708330000001</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="1">
         <v>40.700000000000003</v>
       </c>
       <c r="E405" s="1">
@@ -4853,7 +4852,7 @@
       <c r="A406" s="1">
         <v>127.9375</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="1">
         <v>40.700000000000003</v>
       </c>
       <c r="E406" s="1">
@@ -4882,13 +4881,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/source/input/configuration/default-ts-single-Tx_var.xlsx
+++ b/source/input/configuration/default-ts-single-Tx_var.xlsx
@@ -34,9 +34,6 @@
     <t>DoY</t>
   </si>
   <si>
-    <t>Tx_th (deg)</t>
-  </si>
-  <si>
     <t>Tx_ph (deg)</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>VSM (cm3/cm3)</t>
+  </si>
+  <si>
+    <t>Tx_el (deg)</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
   <dimension ref="A1:E406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,16 +386,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -403,7 +403,7 @@
         <v>123.72916669999999</v>
       </c>
       <c r="B2" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="C2" s="1">
         <v>200</v>
@@ -420,7 +420,7 @@
         <v>123.73958330000001</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
         <v>0.37388011999999998</v>
@@ -431,7 +431,7 @@
         <v>123.75</v>
       </c>
       <c r="B4" s="1">
-        <v>40.1</v>
+        <v>49.9</v>
       </c>
       <c r="E4" s="1">
         <v>0.37492744</v>
@@ -442,7 +442,7 @@
         <v>123.76041669999999</v>
       </c>
       <c r="B5" s="1">
-        <v>40.4</v>
+        <v>49.6</v>
       </c>
       <c r="E5" s="1">
         <v>0.37142836600000001</v>
@@ -453,7 +453,7 @@
         <v>123.77083330000001</v>
       </c>
       <c r="B6" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E6" s="1">
         <v>0.36949404299999999</v>
@@ -464,7 +464,7 @@
         <v>123.78125</v>
       </c>
       <c r="B7" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E7" s="1">
         <v>0.36949404299999999</v>
@@ -475,7 +475,7 @@
         <v>123.79166669999999</v>
       </c>
       <c r="B8" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E8" s="1">
         <v>0.36949404299999999</v>
@@ -486,7 +486,7 @@
         <v>123.80208330000001</v>
       </c>
       <c r="B9" s="1">
-        <v>39.700000000000003</v>
+        <v>50.3</v>
       </c>
       <c r="E9" s="1">
         <v>0.36967018099999999</v>
@@ -497,7 +497,7 @@
         <v>123.8125</v>
       </c>
       <c r="B10" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E10" s="1">
         <v>0.36967018099999999</v>
@@ -508,7 +508,7 @@
         <v>123.82291669999999</v>
       </c>
       <c r="B11" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1">
         <v>0.36967018099999999</v>
@@ -519,7 +519,7 @@
         <v>123.83333330000001</v>
       </c>
       <c r="B12" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E12" s="1">
         <v>0.36967018099999999</v>
@@ -530,7 +530,7 @@
         <v>123.84375</v>
       </c>
       <c r="B13" s="1">
-        <v>41.3</v>
+        <v>48.7</v>
       </c>
       <c r="E13" s="1">
         <v>0.36958211899999999</v>
@@ -541,7 +541,7 @@
         <v>123.85416669999999</v>
       </c>
       <c r="B14" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E14" s="1">
         <v>0.37230528499999999</v>
@@ -552,7 +552,7 @@
         <v>123.86458330000001</v>
       </c>
       <c r="B15" s="1">
-        <v>42.6</v>
+        <v>47.4</v>
       </c>
       <c r="E15" s="1">
         <v>0.37221765800000001</v>
@@ -563,7 +563,7 @@
         <v>123.875</v>
       </c>
       <c r="B16" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E16" s="1">
         <v>0.37204236099999999</v>
@@ -574,7 +574,7 @@
         <v>123.88541669999999</v>
       </c>
       <c r="B17" s="1">
-        <v>42.8</v>
+        <v>47.2</v>
       </c>
       <c r="E17" s="1">
         <v>0.373093283</v>
@@ -585,7 +585,7 @@
         <v>123.89583330000001</v>
       </c>
       <c r="B18" s="1">
-        <v>42.8</v>
+        <v>47.2</v>
       </c>
       <c r="E18" s="1">
         <v>0.37291827300000002</v>
@@ -596,7 +596,7 @@
         <v>123.90625</v>
       </c>
       <c r="B19" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E19" s="1">
         <v>0.37579864699999999</v>
@@ -607,7 +607,7 @@
         <v>123.91666669999999</v>
       </c>
       <c r="B20" s="1">
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
       <c r="E20" s="1">
         <v>0.37562451899999999</v>
@@ -618,7 +618,7 @@
         <v>123.92708330000001</v>
       </c>
       <c r="B21" s="1">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="E21" s="1">
         <v>0.37840382900000002</v>
@@ -629,7 +629,7 @@
         <v>123.9375</v>
       </c>
       <c r="B22" s="1">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="E22" s="1">
         <v>0.37666844300000002</v>
@@ -640,7 +640,7 @@
         <v>123.94791669999999</v>
       </c>
       <c r="B23" s="1">
-        <v>46.5</v>
+        <v>43.5</v>
       </c>
       <c r="E23" s="1">
         <v>0.37649459600000001</v>
@@ -651,7 +651,7 @@
         <v>123.95833330000001</v>
       </c>
       <c r="B24" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E24" s="1">
         <v>0.37649459600000001</v>
@@ -662,7 +662,7 @@
         <v>123.96875</v>
       </c>
       <c r="B25" s="1">
-        <v>48.3</v>
+        <v>41.7</v>
       </c>
       <c r="E25" s="1">
         <v>0.37926943400000002</v>
@@ -673,7 +673,7 @@
         <v>123.97916669999999</v>
       </c>
       <c r="B26" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E26" s="1">
         <v>0.37918293600000003</v>
@@ -684,7 +684,7 @@
         <v>123.98958330000001</v>
       </c>
       <c r="B27" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E27" s="1">
         <v>0.37909642399999999</v>
@@ -695,7 +695,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E28" s="1">
         <v>0.37909642399999999</v>
@@ -706,7 +706,7 @@
         <v>124.01041669999999</v>
       </c>
       <c r="B29" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E29" s="1">
         <v>0.37909642399999999</v>
@@ -717,7 +717,7 @@
         <v>124.02083330000001</v>
       </c>
       <c r="B30" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E30" s="1">
         <v>0.37900989800000001</v>
@@ -728,7 +728,7 @@
         <v>124.03125</v>
       </c>
       <c r="B31" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E31" s="1">
         <v>0.37900989800000001</v>
@@ -739,7 +739,7 @@
         <v>124.04166669999999</v>
       </c>
       <c r="B32" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E32" s="1">
         <v>0.37900989800000001</v>
@@ -750,7 +750,7 @@
         <v>124.05208330000001</v>
       </c>
       <c r="B33" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E33" s="1">
         <v>0.37900989800000001</v>
@@ -761,7 +761,7 @@
         <v>124.0625</v>
       </c>
       <c r="B34" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E34" s="1">
         <v>0.37900989800000001</v>
@@ -772,7 +772,7 @@
         <v>124.07291669999999</v>
       </c>
       <c r="B35" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E35" s="1">
         <v>0.37900989800000001</v>
@@ -783,7 +783,7 @@
         <v>124.08333330000001</v>
       </c>
       <c r="B36" s="1">
-        <v>48.1</v>
+        <v>41.9</v>
       </c>
       <c r="E36" s="1">
         <v>0.37892335799999999</v>
@@ -794,7 +794,7 @@
         <v>124.09375</v>
       </c>
       <c r="B37" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E37" s="1">
         <v>0.378836805</v>
@@ -805,7 +805,7 @@
         <v>124.10416669999999</v>
       </c>
       <c r="B38" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E38" s="1">
         <v>0.37996091999999998</v>
@@ -816,7 +816,7 @@
         <v>124.11458330000001</v>
       </c>
       <c r="B39" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E39" s="1">
         <v>0.38254616499999999</v>
@@ -827,7 +827,7 @@
         <v>124.125</v>
       </c>
       <c r="B40" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E40" s="1">
         <v>0.38246018799999998</v>
@@ -838,7 +838,7 @@
         <v>124.13541669999999</v>
       </c>
       <c r="B41" s="1">
-        <v>44.4</v>
+        <v>45.6</v>
       </c>
       <c r="E41" s="1">
         <v>0.38520473599999999</v>
@@ -849,7 +849,7 @@
         <v>124.14583330000001</v>
       </c>
       <c r="B42" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E42" s="1">
         <v>0.38511917800000001</v>
@@ -860,7 +860,7 @@
         <v>124.15625</v>
       </c>
       <c r="B43" s="1">
-        <v>43.9</v>
+        <v>46.1</v>
       </c>
       <c r="E43" s="1">
         <v>0.38614499699999999</v>
@@ -871,7 +871,7 @@
         <v>124.16666669999999</v>
       </c>
       <c r="B44" s="1">
-        <v>44.4</v>
+        <v>45.6</v>
       </c>
       <c r="E44" s="1">
         <v>0.38887116399999999</v>
@@ -882,7 +882,7 @@
         <v>124.17708330000001</v>
       </c>
       <c r="B45" s="1">
-        <v>43.4</v>
+        <v>46.6</v>
       </c>
       <c r="E45" s="1">
         <v>0.39268213899999999</v>
@@ -893,7 +893,7 @@
         <v>124.1875</v>
       </c>
       <c r="B46" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E46" s="1">
         <v>0.392597735</v>
@@ -904,7 +904,7 @@
         <v>124.19791669999999</v>
       </c>
       <c r="B47" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E47" s="1">
         <v>0.39537629200000002</v>
@@ -915,7 +915,7 @@
         <v>124.20833330000001</v>
       </c>
       <c r="B48" s="1">
-        <v>40.9</v>
+        <v>49.1</v>
       </c>
       <c r="E48" s="1">
         <v>0.39537629200000002</v>
@@ -926,7 +926,7 @@
         <v>124.21875</v>
       </c>
       <c r="B49" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E49" s="1">
         <v>0.40487003599999999</v>
@@ -937,7 +937,7 @@
         <v>124.22916669999999</v>
       </c>
       <c r="B50" s="1">
-        <v>40.799999999999997</v>
+        <v>49.2</v>
       </c>
       <c r="E50" s="1">
         <v>0.40487003599999999</v>
@@ -948,7 +948,7 @@
         <v>124.23958330000001</v>
       </c>
       <c r="B51" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E51" s="1">
         <v>0.40478744900000002</v>
@@ -959,7 +959,7 @@
         <v>124.25</v>
       </c>
       <c r="B52" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E52" s="1">
         <v>0.40205531100000003</v>
@@ -970,7 +970,7 @@
         <v>124.26041669999999</v>
       </c>
       <c r="B53" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E53" s="1">
         <v>0.400892211</v>
@@ -981,7 +981,7 @@
         <v>124.27083330000001</v>
       </c>
       <c r="B54" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E54" s="1">
         <v>0.400892211</v>
@@ -992,7 +992,7 @@
         <v>124.28125</v>
       </c>
       <c r="B55" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E55" s="1">
         <v>0.40080904000000001</v>
@@ -1003,7 +1003,7 @@
         <v>124.29166669999999</v>
       </c>
       <c r="B56" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E56" s="1">
         <v>0.397973878</v>
@@ -1014,7 +1014,7 @@
         <v>124.30208330000001</v>
       </c>
       <c r="B57" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E57" s="1">
         <v>0.39789027300000002</v>
@@ -1025,7 +1025,7 @@
         <v>124.3125</v>
       </c>
       <c r="B58" s="1">
-        <v>39.5</v>
+        <v>50.5</v>
       </c>
       <c r="E58" s="1">
         <v>0.40072585700000002</v>
@@ -1036,7 +1036,7 @@
         <v>124.32291669999999</v>
       </c>
       <c r="B59" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E59" s="1">
         <v>0.40064266199999998</v>
@@ -1047,7 +1047,7 @@
         <v>124.33333330000001</v>
       </c>
       <c r="B60" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E60" s="1">
         <v>0.40064266199999998</v>
@@ -1058,7 +1058,7 @@
         <v>124.34375</v>
       </c>
       <c r="B61" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E61" s="1">
         <v>0.40055945399999998</v>
@@ -1069,7 +1069,7 @@
         <v>124.35416669999999</v>
       </c>
       <c r="B62" s="1">
-        <v>41.6</v>
+        <v>48.4</v>
       </c>
       <c r="E62" s="1">
         <v>0.40055945399999998</v>
@@ -1080,7 +1080,7 @@
         <v>124.36458330000001</v>
       </c>
       <c r="B63" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E63" s="1">
         <v>0.40055945399999998</v>
@@ -1091,7 +1091,7 @@
         <v>124.375</v>
       </c>
       <c r="B64" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E64" s="1">
         <v>0.40055945399999998</v>
@@ -1102,7 +1102,7 @@
         <v>124.38541669999999</v>
       </c>
       <c r="B65" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E65" s="1">
         <v>0.40047623399999999</v>
@@ -1113,7 +1113,7 @@
         <v>124.39583330000001</v>
       </c>
       <c r="B66" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E66" s="1">
         <v>0.39763938399999998</v>
@@ -1124,7 +1124,7 @@
         <v>124.40625</v>
       </c>
       <c r="B67" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E67" s="1">
         <v>0.39763938399999998</v>
@@ -1135,7 +1135,7 @@
         <v>124.41666669999999</v>
       </c>
       <c r="B68" s="1">
-        <v>44.1</v>
+        <v>45.9</v>
       </c>
       <c r="E68" s="1">
         <v>0.39763938399999998</v>
@@ -1146,7 +1146,7 @@
         <v>124.42708330000001</v>
       </c>
       <c r="B69" s="1">
-        <v>45.8</v>
+        <v>44.2</v>
       </c>
       <c r="E69" s="1">
         <v>0.39772302599999998</v>
@@ -1168,7 +1168,7 @@
         <v>124.44791669999999</v>
       </c>
       <c r="B71" s="1">
-        <v>46.6</v>
+        <v>43.4</v>
       </c>
       <c r="E71" s="1">
         <v>0.39772302599999998</v>
@@ -1179,7 +1179,7 @@
         <v>124.45833330000001</v>
       </c>
       <c r="B72" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E72" s="1">
         <v>0.39780665599999998</v>
@@ -1190,7 +1190,7 @@
         <v>124.46875</v>
       </c>
       <c r="B73" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E73" s="1">
         <v>0.39780665599999998</v>
@@ -1201,7 +1201,7 @@
         <v>124.47916669999999</v>
       </c>
       <c r="B74" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E74" s="1">
         <v>0.39780665599999998</v>
@@ -1212,7 +1212,7 @@
         <v>124.48958330000001</v>
       </c>
       <c r="B75" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E75" s="1">
         <v>0.39780665599999998</v>
@@ -1223,7 +1223,7 @@
         <v>124.5</v>
       </c>
       <c r="B76" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E76" s="1">
         <v>0.39789027300000002</v>
@@ -1234,7 +1234,7 @@
         <v>124.51041669999999</v>
       </c>
       <c r="B77" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E77" s="1">
         <v>0.39789027300000002</v>
@@ -1245,7 +1245,7 @@
         <v>124.52083330000001</v>
       </c>
       <c r="B78" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E78" s="1">
         <v>0.397973878</v>
@@ -1256,7 +1256,7 @@
         <v>124.53125</v>
       </c>
       <c r="B79" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E79" s="1">
         <v>0.39805747000000002</v>
@@ -1267,7 +1267,7 @@
         <v>124.54166669999999</v>
       </c>
       <c r="B80" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E80" s="1">
         <v>0.39814105</v>
@@ -1278,7 +1278,7 @@
         <v>124.55208330000001</v>
       </c>
       <c r="B81" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E81" s="1">
         <v>0.398224617</v>
@@ -1289,7 +1289,7 @@
         <v>124.5625</v>
       </c>
       <c r="B82" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E82" s="1">
         <v>0.398224617</v>
@@ -1300,7 +1300,7 @@
         <v>124.57291669999999</v>
       </c>
       <c r="B83" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E83" s="1">
         <v>0.398224617</v>
@@ -1311,7 +1311,7 @@
         <v>124.58333330000001</v>
       </c>
       <c r="B84" s="1">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
       <c r="E84" s="1">
         <v>0.398224617</v>
@@ -1322,7 +1322,7 @@
         <v>124.59375</v>
       </c>
       <c r="B85" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E85" s="1">
         <v>0.39830817200000002</v>
@@ -1333,7 +1333,7 @@
         <v>124.60416669999999</v>
       </c>
       <c r="B86" s="1">
-        <v>47.9</v>
+        <v>42.1</v>
       </c>
       <c r="E86" s="1">
         <v>0.40014323099999999</v>
@@ -1344,7 +1344,7 @@
         <v>124.61458330000001</v>
       </c>
       <c r="B87" s="1">
-        <v>46.6</v>
+        <v>43.4</v>
       </c>
       <c r="E87" s="1">
         <v>0.39839171400000001</v>
@@ -1355,7 +1355,7 @@
         <v>124.625</v>
       </c>
       <c r="B88" s="1">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="E88" s="1">
         <v>0.40022650100000001</v>
@@ -1366,7 +1366,7 @@
         <v>124.63541669999999</v>
       </c>
       <c r="B89" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E89" s="1">
         <v>0.39839171400000001</v>
@@ -1377,7 +1377,7 @@
         <v>124.64583330000001</v>
       </c>
       <c r="B90" s="1">
-        <v>45.6</v>
+        <v>44.4</v>
       </c>
       <c r="E90" s="1">
         <v>0.39839171400000001</v>
@@ -1388,7 +1388,7 @@
         <v>124.65625</v>
       </c>
       <c r="B91" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E91" s="1">
         <v>0.40014323099999999</v>
@@ -1399,7 +1399,7 @@
         <v>124.66666669999999</v>
       </c>
       <c r="B92" s="1">
-        <v>43.4</v>
+        <v>46.6</v>
       </c>
       <c r="E92" s="1">
         <v>0.39839171400000001</v>
@@ -1410,7 +1410,7 @@
         <v>124.67708330000001</v>
       </c>
       <c r="B93" s="1">
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="E93" s="1">
         <v>0.39839171400000001</v>
@@ -1421,7 +1421,7 @@
         <v>124.6875</v>
       </c>
       <c r="B94" s="1">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="E94" s="1">
         <v>0.39830817200000002</v>
@@ -1432,7 +1432,7 @@
         <v>124.69791669999999</v>
       </c>
       <c r="B95" s="1">
-        <v>40.4</v>
+        <v>49.6</v>
       </c>
       <c r="E95" s="1">
         <v>0.39830817200000002</v>
@@ -1443,7 +1443,7 @@
         <v>124.70833330000001</v>
       </c>
       <c r="B96" s="1">
-        <v>41.5</v>
+        <v>48.5</v>
       </c>
       <c r="E96" s="1">
         <v>0.39830817200000002</v>
@@ -1454,7 +1454,7 @@
         <v>124.71875</v>
       </c>
       <c r="B97" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E97" s="1">
         <v>0.398224617</v>
@@ -1465,7 +1465,7 @@
         <v>124.72916669999999</v>
       </c>
       <c r="B98" s="1">
-        <v>39.200000000000003</v>
+        <v>50.8</v>
       </c>
       <c r="E98" s="1">
         <v>0.398224617</v>
@@ -1476,7 +1476,7 @@
         <v>124.73958330000001</v>
       </c>
       <c r="B99" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E99" s="1">
         <v>0.39814105</v>
@@ -1487,7 +1487,7 @@
         <v>124.75</v>
       </c>
       <c r="B100" s="1">
-        <v>39.700000000000003</v>
+        <v>50.3</v>
       </c>
       <c r="E100" s="1">
         <v>0.39805747000000002</v>
@@ -1498,7 +1498,7 @@
         <v>124.76041669999999</v>
       </c>
       <c r="B101" s="1">
-        <v>39.700000000000003</v>
+        <v>50.3</v>
       </c>
       <c r="E101" s="1">
         <v>0.39805747000000002</v>
@@ -1509,7 +1509,7 @@
         <v>124.77083330000001</v>
       </c>
       <c r="B102" s="1">
-        <v>39.5</v>
+        <v>50.5</v>
       </c>
       <c r="E102" s="1">
         <v>0.397973878</v>
@@ -1520,7 +1520,7 @@
         <v>124.78125</v>
       </c>
       <c r="B103" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E103" s="1">
         <v>0.397973878</v>
@@ -1531,7 +1531,7 @@
         <v>124.79166669999999</v>
       </c>
       <c r="B104" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E104" s="1">
         <v>0.397973878</v>
@@ -1542,7 +1542,7 @@
         <v>124.80208330000001</v>
       </c>
       <c r="B105" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E105" s="1">
         <v>0.397973878</v>
@@ -1553,7 +1553,7 @@
         <v>124.8125</v>
       </c>
       <c r="B106" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E106" s="1">
         <v>0.39789027300000002</v>
@@ -1564,7 +1564,7 @@
         <v>124.82291669999999</v>
       </c>
       <c r="B107" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E107" s="1">
         <v>0.39789027300000002</v>
@@ -1575,7 +1575,7 @@
         <v>124.83333330000001</v>
       </c>
       <c r="B108" s="1">
-        <v>41.4</v>
+        <v>48.6</v>
       </c>
       <c r="E108" s="1">
         <v>0.40064266199999998</v>
@@ -1586,7 +1586,7 @@
         <v>124.84375</v>
       </c>
       <c r="B109" s="1">
-        <v>42.8</v>
+        <v>47.2</v>
       </c>
       <c r="E109" s="1">
         <v>0.40064266199999998</v>
@@ -1597,7 +1597,7 @@
         <v>124.85416669999999</v>
       </c>
       <c r="B110" s="1">
-        <v>44.4</v>
+        <v>45.6</v>
       </c>
       <c r="E110" s="1">
         <v>0.40055945399999998</v>
@@ -1608,7 +1608,7 @@
         <v>124.86458330000001</v>
       </c>
       <c r="B111" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E111" s="1">
         <v>0.40055945399999998</v>
@@ -1619,7 +1619,7 @@
         <v>124.875</v>
       </c>
       <c r="B112" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E112" s="1">
         <v>0.40047623399999999</v>
@@ -1630,7 +1630,7 @@
         <v>124.88541669999999</v>
       </c>
       <c r="B113" s="1">
-        <v>37.700000000000003</v>
+        <v>52.3</v>
       </c>
       <c r="E113" s="1">
         <v>0.40047623399999999</v>
@@ -1641,7 +1641,7 @@
         <v>124.89583330000001</v>
       </c>
       <c r="B114" s="1">
-        <v>38.700000000000003</v>
+        <v>51.3</v>
       </c>
       <c r="E114" s="1">
         <v>0.400393002</v>
@@ -1652,7 +1652,7 @@
         <v>124.90625</v>
       </c>
       <c r="B115" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E115" s="1">
         <v>0.400393002</v>
@@ -1663,7 +1663,7 @@
         <v>124.91666669999999</v>
       </c>
       <c r="B116" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E116" s="1">
         <v>0.40030975699999999</v>
@@ -1674,7 +1674,7 @@
         <v>124.92708330000001</v>
       </c>
       <c r="B117" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E117" s="1">
         <v>0.40030975699999999</v>
@@ -1685,7 +1685,7 @@
         <v>124.9375</v>
       </c>
       <c r="B118" s="1">
-        <v>38.1</v>
+        <v>51.9</v>
       </c>
       <c r="E118" s="1">
         <v>0.40022650100000001</v>
@@ -1696,7 +1696,7 @@
         <v>124.94791669999999</v>
       </c>
       <c r="B119" s="1">
-        <v>41.1</v>
+        <v>48.9</v>
       </c>
       <c r="E119" s="1">
         <v>0.40022650100000001</v>
@@ -1707,7 +1707,7 @@
         <v>124.95833330000001</v>
       </c>
       <c r="B120" s="1">
-        <v>45.8</v>
+        <v>44.2</v>
       </c>
       <c r="E120" s="1">
         <v>0.40022650100000001</v>
@@ -1718,7 +1718,7 @@
         <v>124.96875</v>
       </c>
       <c r="B121" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E121" s="1">
         <v>0.40022650100000001</v>
@@ -1729,7 +1729,7 @@
         <v>124.97916669999999</v>
       </c>
       <c r="B122" s="1">
-        <v>41.5</v>
+        <v>48.5</v>
       </c>
       <c r="E122" s="1">
         <v>0.40014323099999999</v>
@@ -1740,7 +1740,7 @@
         <v>124.98958330000001</v>
       </c>
       <c r="B123" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E123" s="1">
         <v>0.40014323099999999</v>
@@ -1751,7 +1751,7 @@
         <v>125</v>
       </c>
       <c r="B124" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E124" s="1">
         <v>0.40014323099999999</v>
@@ -1762,7 +1762,7 @@
         <v>125.01041669999999</v>
       </c>
       <c r="B125" s="1">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
       <c r="E125" s="1">
         <v>0.40005995</v>
@@ -1773,7 +1773,7 @@
         <v>125.02083330000001</v>
       </c>
       <c r="B126" s="1">
-        <v>43.6</v>
+        <v>46.4</v>
       </c>
       <c r="E126" s="1">
         <v>0.40005995</v>
@@ -1806,7 +1806,7 @@
         <v>125.05208330000001</v>
       </c>
       <c r="B129" s="1">
-        <v>45.8</v>
+        <v>44.2</v>
       </c>
       <c r="E129" s="1">
         <v>0.39997665599999999</v>
@@ -1817,7 +1817,7 @@
         <v>125.0625</v>
       </c>
       <c r="B130" s="1">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="E130" s="1">
         <v>0.39989334900000001</v>
@@ -1828,7 +1828,7 @@
         <v>125.07291669999999</v>
       </c>
       <c r="B131" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E131" s="1">
         <v>0.39997665599999999</v>
@@ -1839,7 +1839,7 @@
         <v>125.08333330000001</v>
       </c>
       <c r="B132" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E132" s="1">
         <v>0.39981002999999998</v>
@@ -1850,7 +1850,7 @@
         <v>125.09375</v>
       </c>
       <c r="B133" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E133" s="1">
         <v>0.39981002999999998</v>
@@ -1861,7 +1861,7 @@
         <v>125.10416669999999</v>
       </c>
       <c r="B134" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E134" s="1">
         <v>0.39981002999999998</v>
@@ -1872,7 +1872,7 @@
         <v>125.11458330000001</v>
       </c>
       <c r="B135" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E135" s="1">
         <v>0.39981002999999998</v>
@@ -1883,7 +1883,7 @@
         <v>125.125</v>
       </c>
       <c r="B136" s="1">
-        <v>49.7</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E136" s="1">
         <v>0.39972669900000002</v>
@@ -1894,7 +1894,7 @@
         <v>125.13541669999999</v>
       </c>
       <c r="B137" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E137" s="1">
         <v>0.39972669900000002</v>
@@ -1905,7 +1905,7 @@
         <v>125.14583330000001</v>
       </c>
       <c r="B138" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E138" s="1">
         <v>0.39972669900000002</v>
@@ -1916,7 +1916,7 @@
         <v>125.15625</v>
       </c>
       <c r="B139" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E139" s="1">
         <v>0.39964335600000001</v>
@@ -1927,7 +1927,7 @@
         <v>125.16666669999999</v>
       </c>
       <c r="B140" s="1">
-        <v>48.8</v>
+        <v>41.2</v>
       </c>
       <c r="E140" s="1">
         <v>0.39964335600000001</v>
@@ -1938,7 +1938,7 @@
         <v>125.17708330000001</v>
       </c>
       <c r="B141" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E141" s="1">
         <v>0.39956000000000003</v>
@@ -1949,7 +1949,7 @@
         <v>125.1875</v>
       </c>
       <c r="B142" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E142" s="1">
         <v>0.399476632</v>
@@ -1960,7 +1960,7 @@
         <v>125.19791669999999</v>
       </c>
       <c r="B143" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E143" s="1">
         <v>0.399476632</v>
@@ -1971,7 +1971,7 @@
         <v>125.20833330000001</v>
       </c>
       <c r="B144" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E144" s="1">
         <v>0.399393251</v>
@@ -1982,7 +1982,7 @@
         <v>125.21875</v>
       </c>
       <c r="B145" s="1">
-        <v>47.4</v>
+        <v>42.6</v>
       </c>
       <c r="E145" s="1">
         <v>0.39930985800000002</v>
@@ -1993,7 +1993,7 @@
         <v>125.22916669999999</v>
       </c>
       <c r="B146" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E146" s="1">
         <v>0.39763938399999998</v>
@@ -2004,7 +2004,7 @@
         <v>125.23958330000001</v>
       </c>
       <c r="B147" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E147" s="1">
         <v>0.39755572900000002</v>
@@ -2015,7 +2015,7 @@
         <v>125.25</v>
       </c>
       <c r="B148" s="1">
-        <v>46.6</v>
+        <v>43.4</v>
       </c>
       <c r="E148" s="1">
         <v>0.39747206200000001</v>
@@ -2026,7 +2026,7 @@
         <v>125.26041669999999</v>
       </c>
       <c r="B149" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E149" s="1">
         <v>0.39738838199999998</v>
@@ -2048,7 +2048,7 @@
         <v>125.28125</v>
       </c>
       <c r="B151" s="1">
-        <v>42.9</v>
+        <v>47.1</v>
       </c>
       <c r="E151" s="1">
         <v>0.39722098500000003</v>
@@ -2059,7 +2059,7 @@
         <v>125.29166669999999</v>
       </c>
       <c r="B152" s="1">
-        <v>43.9</v>
+        <v>46.1</v>
       </c>
       <c r="E152" s="1">
         <v>0.39713726700000002</v>
@@ -2070,7 +2070,7 @@
         <v>125.30208330000001</v>
       </c>
       <c r="B153" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E153" s="1">
         <v>0.39713726700000002</v>
@@ -2081,7 +2081,7 @@
         <v>125.3125</v>
       </c>
       <c r="B154" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E154" s="1">
         <v>0.39705353700000001</v>
@@ -2092,7 +2092,7 @@
         <v>125.32291669999999</v>
       </c>
       <c r="B155" s="1">
-        <v>41.9</v>
+        <v>48.1</v>
       </c>
       <c r="E155" s="1">
         <v>0.39705353700000001</v>
@@ -2103,7 +2103,7 @@
         <v>125.33333330000001</v>
       </c>
       <c r="B156" s="1">
-        <v>41.9</v>
+        <v>48.1</v>
       </c>
       <c r="E156" s="1">
         <v>0.39696979500000001</v>
@@ -2114,7 +2114,7 @@
         <v>125.34375</v>
       </c>
       <c r="B157" s="1">
-        <v>40.799999999999997</v>
+        <v>49.2</v>
       </c>
       <c r="E157" s="1">
         <v>0.39696979500000001</v>
@@ -2125,7 +2125,7 @@
         <v>125.35416669999999</v>
       </c>
       <c r="B158" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E158" s="1">
         <v>0.39696979500000001</v>
@@ -2136,7 +2136,7 @@
         <v>125.36458330000001</v>
       </c>
       <c r="B159" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E159" s="1">
         <v>0.39696979500000001</v>
@@ -2147,7 +2147,7 @@
         <v>125.375</v>
       </c>
       <c r="B160" s="1">
-        <v>38.5</v>
+        <v>51.5</v>
       </c>
       <c r="E160" s="1">
         <v>0.39705353700000001</v>
@@ -2158,7 +2158,7 @@
         <v>125.38541669999999</v>
       </c>
       <c r="B161" s="1">
-        <v>39.200000000000003</v>
+        <v>50.8</v>
       </c>
       <c r="E161" s="1">
         <v>0.39872575900000001</v>
@@ -2169,7 +2169,7 @@
         <v>125.39583330000001</v>
       </c>
       <c r="B162" s="1">
-        <v>38.5</v>
+        <v>51.5</v>
       </c>
       <c r="E162" s="1">
         <v>0.39889270599999999</v>
@@ -2180,7 +2180,7 @@
         <v>125.40625</v>
       </c>
       <c r="B163" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E163" s="1">
         <v>0.39897616200000002</v>
@@ -2191,7 +2191,7 @@
         <v>125.41666669999999</v>
       </c>
       <c r="B164" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E164" s="1">
         <v>0.39922645299999998</v>
@@ -2202,7 +2202,7 @@
         <v>125.42708330000001</v>
       </c>
       <c r="B165" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E165" s="1">
         <v>0.39930985800000002</v>
@@ -2213,7 +2213,7 @@
         <v>125.4375</v>
       </c>
       <c r="B166" s="1">
-        <v>40.9</v>
+        <v>49.1</v>
       </c>
       <c r="E166" s="1">
         <v>0.39688604</v>
@@ -2224,7 +2224,7 @@
         <v>125.44791669999999</v>
       </c>
       <c r="B167" s="1">
-        <v>43.6</v>
+        <v>46.4</v>
       </c>
       <c r="E167" s="1">
         <v>0.39897616200000002</v>
@@ -2235,7 +2235,7 @@
         <v>125.45833330000001</v>
       </c>
       <c r="B168" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E168" s="1">
         <v>0.39922645299999998</v>
@@ -2246,7 +2246,7 @@
         <v>125.46875</v>
       </c>
       <c r="B169" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E169" s="1">
         <v>0.399393251</v>
@@ -2257,7 +2257,7 @@
         <v>125.47916669999999</v>
       </c>
       <c r="B170" s="1">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="E170" s="1">
         <v>0.399393251</v>
@@ -2268,7 +2268,7 @@
         <v>125.48958330000001</v>
       </c>
       <c r="B171" s="1">
-        <v>43.2</v>
+        <v>46.8</v>
       </c>
       <c r="E171" s="1">
         <v>0.399476632</v>
@@ -2279,7 +2279,7 @@
         <v>125.5</v>
       </c>
       <c r="B172" s="1">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
       <c r="E172" s="1">
         <v>0.39956000000000003</v>
@@ -2290,7 +2290,7 @@
         <v>125.51041669999999</v>
       </c>
       <c r="B173" s="1">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="E173" s="1">
         <v>0.39964335600000001</v>
@@ -2301,7 +2301,7 @@
         <v>125.52083330000001</v>
       </c>
       <c r="B174" s="1">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="E174" s="1">
         <v>0.39981002999999998</v>
@@ -2323,7 +2323,7 @@
         <v>125.54166669999999</v>
       </c>
       <c r="B176" s="1">
-        <v>46.9</v>
+        <v>43.1</v>
       </c>
       <c r="E176" s="1">
         <v>0.39905960400000001</v>
@@ -2334,7 +2334,7 @@
         <v>125.55208330000001</v>
       </c>
       <c r="B177" s="1">
-        <v>48.4</v>
+        <v>41.6</v>
       </c>
       <c r="E177" s="1">
         <v>0.399393251</v>
@@ -2345,7 +2345,7 @@
         <v>125.5625</v>
       </c>
       <c r="B178" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E178" s="1">
         <v>0.39964335600000001</v>
@@ -2356,7 +2356,7 @@
         <v>125.57291669999999</v>
       </c>
       <c r="B179" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E179" s="1">
         <v>0.39989334900000001</v>
@@ -2367,7 +2367,7 @@
         <v>125.58333330000001</v>
       </c>
       <c r="B180" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E180" s="1">
         <v>0.39897616200000002</v>
@@ -2378,7 +2378,7 @@
         <v>125.59375</v>
       </c>
       <c r="B181" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E181" s="1">
         <v>0.39922645299999998</v>
@@ -2389,7 +2389,7 @@
         <v>125.60416669999999</v>
       </c>
       <c r="B182" s="1">
-        <v>48.7</v>
+        <v>41.3</v>
       </c>
       <c r="E182" s="1">
         <v>0.399393251</v>
@@ -2400,7 +2400,7 @@
         <v>125.61458330000001</v>
       </c>
       <c r="B183" s="1">
-        <v>47.4</v>
+        <v>42.6</v>
       </c>
       <c r="E183" s="1">
         <v>0.39956000000000003</v>
@@ -2411,7 +2411,7 @@
         <v>125.625</v>
       </c>
       <c r="B184" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E184" s="1">
         <v>0.39956000000000003</v>
@@ -2422,7 +2422,7 @@
         <v>125.63541669999999</v>
       </c>
       <c r="B185" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E185" s="1">
         <v>0.399476632</v>
@@ -2433,7 +2433,7 @@
         <v>125.64583330000001</v>
       </c>
       <c r="B186" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E186" s="1">
         <v>0.399393251</v>
@@ -2444,7 +2444,7 @@
         <v>125.65625</v>
       </c>
       <c r="B187" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E187" s="1">
         <v>0.39755572900000002</v>
@@ -2455,7 +2455,7 @@
         <v>125.66666669999999</v>
       </c>
       <c r="B188" s="1">
-        <v>39.1</v>
+        <v>50.9</v>
       </c>
       <c r="E188" s="1">
         <v>0.39747206200000001</v>
@@ -2466,7 +2466,7 @@
         <v>125.67708330000001</v>
       </c>
       <c r="B189" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E189" s="1">
         <v>0.39922645299999998</v>
@@ -2477,7 +2477,7 @@
         <v>125.6875</v>
       </c>
       <c r="B190" s="1">
-        <v>40.1</v>
+        <v>49.9</v>
       </c>
       <c r="E190" s="1">
         <v>0.399393251</v>
@@ -2488,7 +2488,7 @@
         <v>125.69791669999999</v>
       </c>
       <c r="B191" s="1">
-        <v>39.700000000000003</v>
+        <v>50.3</v>
       </c>
       <c r="E191" s="1">
         <v>0.39663469899999998</v>
@@ -2499,7 +2499,7 @@
         <v>125.70833330000001</v>
       </c>
       <c r="B192" s="1">
-        <v>40.4</v>
+        <v>49.6</v>
       </c>
       <c r="E192" s="1">
         <v>0.39864226600000002</v>
@@ -2510,7 +2510,7 @@
         <v>125.71875</v>
       </c>
       <c r="B193" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E193" s="1">
         <v>0.39880923899999998</v>
@@ -2521,7 +2521,7 @@
         <v>125.72916669999999</v>
       </c>
       <c r="B194" s="1">
-        <v>40.9</v>
+        <v>49.1</v>
       </c>
       <c r="E194" s="1">
         <v>0.39889270599999999</v>
@@ -2532,7 +2532,7 @@
         <v>125.73958330000001</v>
       </c>
       <c r="B195" s="1">
-        <v>42.7</v>
+        <v>47.3</v>
       </c>
       <c r="E195" s="1">
         <v>0.39897616200000002</v>
@@ -2543,7 +2543,7 @@
         <v>125.75</v>
       </c>
       <c r="B196" s="1">
-        <v>39.700000000000003</v>
+        <v>50.3</v>
       </c>
       <c r="E196" s="1">
         <v>0.39897616200000002</v>
@@ -2554,7 +2554,7 @@
         <v>125.76041669999999</v>
       </c>
       <c r="B197" s="1">
-        <v>44.1</v>
+        <v>45.9</v>
       </c>
       <c r="E197" s="1">
         <v>0.39897616200000002</v>
@@ -2565,7 +2565,7 @@
         <v>125.77083330000001</v>
       </c>
       <c r="B198" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E198" s="1">
         <v>0.39889270599999999</v>
@@ -2576,7 +2576,7 @@
         <v>125.78125</v>
       </c>
       <c r="B199" s="1">
-        <v>42.7</v>
+        <v>47.3</v>
       </c>
       <c r="E199" s="1">
         <v>0.39880923899999998</v>
@@ -2587,7 +2587,7 @@
         <v>125.79166669999999</v>
       </c>
       <c r="B200" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E200" s="1">
         <v>0.39872575900000001</v>
@@ -2598,7 +2598,7 @@
         <v>125.80208330000001</v>
       </c>
       <c r="B201" s="1">
-        <v>46.5</v>
+        <v>43.5</v>
       </c>
       <c r="E201" s="1">
         <v>0.39671849199999998</v>
@@ -2609,7 +2609,7 @@
         <v>125.8125</v>
       </c>
       <c r="B202" s="1">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E202" s="1">
         <v>0.39655089300000002</v>
@@ -2620,7 +2620,7 @@
         <v>125.82291669999999</v>
       </c>
       <c r="B203" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E203" s="1">
         <v>0.396383245</v>
@@ -2631,7 +2631,7 @@
         <v>125.83333330000001</v>
       </c>
       <c r="B204" s="1">
-        <v>47.4</v>
+        <v>42.6</v>
       </c>
       <c r="E204" s="1">
         <v>0.39445164999999999</v>
@@ -2642,7 +2642,7 @@
         <v>125.84375</v>
       </c>
       <c r="B205" s="1">
-        <v>48.4</v>
+        <v>41.6</v>
       </c>
       <c r="E205" s="1">
         <v>0.39730469000000002</v>
@@ -2653,7 +2653,7 @@
         <v>125.85416669999999</v>
       </c>
       <c r="B206" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E206" s="1">
         <v>0.39705353700000001</v>
@@ -2664,7 +2664,7 @@
         <v>125.86458330000001</v>
       </c>
       <c r="B207" s="1">
-        <v>50.1</v>
+        <v>39.9</v>
       </c>
       <c r="E207" s="1">
         <v>0.39688604</v>
@@ -2675,7 +2675,7 @@
         <v>125.875</v>
       </c>
       <c r="B208" s="1">
-        <v>49.9</v>
+        <v>40.1</v>
       </c>
       <c r="E208" s="1">
         <v>0.39663469899999998</v>
@@ -2686,7 +2686,7 @@
         <v>125.88541669999999</v>
       </c>
       <c r="B209" s="1">
-        <v>48.9</v>
+        <v>41.1</v>
       </c>
       <c r="E209" s="1">
         <v>0.39461988100000001</v>
@@ -2697,7 +2697,7 @@
         <v>125.89583330000001</v>
       </c>
       <c r="B210" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E210" s="1">
         <v>0.39445164999999999</v>
@@ -2708,7 +2708,7 @@
         <v>125.90625</v>
       </c>
       <c r="B211" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E211" s="1">
         <v>0.39419920800000002</v>
@@ -2719,7 +2719,7 @@
         <v>125.91666669999999</v>
       </c>
       <c r="B212" s="1">
-        <v>48.7</v>
+        <v>41.3</v>
       </c>
       <c r="E212" s="1">
         <v>0.39403084900000002</v>
@@ -2730,7 +2730,7 @@
         <v>125.92708330000001</v>
       </c>
       <c r="B213" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E213" s="1">
         <v>0.39386243999999998</v>
@@ -2741,7 +2741,7 @@
         <v>125.9375</v>
       </c>
       <c r="B214" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E214" s="1">
         <v>0.39655089300000002</v>
@@ -2752,7 +2752,7 @@
         <v>125.94791669999999</v>
       </c>
       <c r="B215" s="1">
-        <v>48.7</v>
+        <v>41.3</v>
       </c>
       <c r="E215" s="1">
         <v>0.396383245</v>
@@ -2763,7 +2763,7 @@
         <v>125.95833330000001</v>
       </c>
       <c r="B216" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E216" s="1">
         <v>0.396299401</v>
@@ -2774,7 +2774,7 @@
         <v>125.96875</v>
       </c>
       <c r="B217" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E217" s="1">
         <v>0.39613167700000002</v>
@@ -2785,7 +2785,7 @@
         <v>125.97916669999999</v>
       </c>
       <c r="B218" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E218" s="1">
         <v>0.39604779600000001</v>
@@ -2796,7 +2796,7 @@
         <v>125.98958330000001</v>
       </c>
       <c r="B219" s="1">
-        <v>46.9</v>
+        <v>43.1</v>
       </c>
       <c r="E219" s="1">
         <v>0.39587999600000001</v>
@@ -2807,7 +2807,7 @@
         <v>126</v>
       </c>
       <c r="B220" s="1">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="E220" s="1">
         <v>0.39579607700000002</v>
@@ -2818,7 +2818,7 @@
         <v>126.01041669999999</v>
       </c>
       <c r="B221" s="1">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="E221" s="1">
         <v>0.39394665099999998</v>
@@ -2829,7 +2829,7 @@
         <v>126.02083330000001</v>
       </c>
       <c r="B222" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E222" s="1">
         <v>0.39386243999999998</v>
@@ -2840,7 +2840,7 @@
         <v>126.03125</v>
       </c>
       <c r="B223" s="1">
-        <v>42.8</v>
+        <v>47.2</v>
       </c>
       <c r="E223" s="1">
         <v>0.39377821600000001</v>
@@ -2851,7 +2851,7 @@
         <v>126.04166669999999</v>
       </c>
       <c r="B224" s="1">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="E224" s="1">
         <v>0.39369397900000003</v>
@@ -2862,7 +2862,7 @@
         <v>126.05208330000001</v>
       </c>
       <c r="B225" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E225" s="1">
         <v>0.39360972900000002</v>
@@ -2873,7 +2873,7 @@
         <v>126.0625</v>
       </c>
       <c r="B226" s="1">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="E226" s="1">
         <v>0.39352546700000002</v>
@@ -2884,7 +2884,7 @@
         <v>126.07291669999999</v>
       </c>
       <c r="B227" s="1">
-        <v>41.9</v>
+        <v>48.1</v>
       </c>
       <c r="E227" s="1">
         <v>0.393441192</v>
@@ -2895,7 +2895,7 @@
         <v>126.08333330000001</v>
       </c>
       <c r="B228" s="1">
-        <v>40.9</v>
+        <v>49.1</v>
       </c>
       <c r="E228" s="1">
         <v>0.393441192</v>
@@ -2906,7 +2906,7 @@
         <v>126.09375</v>
       </c>
       <c r="B229" s="1">
-        <v>40.4</v>
+        <v>49.6</v>
       </c>
       <c r="E229" s="1">
         <v>0.393441192</v>
@@ -2917,7 +2917,7 @@
         <v>126.10416669999999</v>
       </c>
       <c r="B230" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E230" s="1">
         <v>0.39335690400000001</v>
@@ -2928,7 +2928,7 @@
         <v>126.11458330000001</v>
       </c>
       <c r="B231" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E231" s="1">
         <v>0.39335690400000001</v>
@@ -2939,7 +2939,7 @@
         <v>126.125</v>
       </c>
       <c r="B232" s="1">
-        <v>39.5</v>
+        <v>50.5</v>
       </c>
       <c r="E232" s="1">
         <v>0.39335690400000001</v>
@@ -2950,7 +2950,7 @@
         <v>126.13541669999999</v>
       </c>
       <c r="B233" s="1">
-        <v>39.1</v>
+        <v>50.9</v>
       </c>
       <c r="E233" s="1">
         <v>0.39335690400000001</v>
@@ -2961,7 +2961,7 @@
         <v>126.14583330000001</v>
       </c>
       <c r="B234" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E234" s="1">
         <v>0.39335690400000001</v>
@@ -2972,7 +2972,7 @@
         <v>126.15625</v>
       </c>
       <c r="B235" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E235" s="1">
         <v>0.39335690400000001</v>
@@ -2983,7 +2983,7 @@
         <v>126.16666669999999</v>
       </c>
       <c r="B236" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E236" s="1">
         <v>0.39335690400000001</v>
@@ -2994,7 +2994,7 @@
         <v>126.17708330000001</v>
       </c>
       <c r="B237" s="1">
-        <v>40.4</v>
+        <v>49.6</v>
       </c>
       <c r="E237" s="1">
         <v>0.393441192</v>
@@ -3005,7 +3005,7 @@
         <v>126.1875</v>
       </c>
       <c r="B238" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E238" s="1">
         <v>0.393441192</v>
@@ -3016,7 +3016,7 @@
         <v>126.19791669999999</v>
       </c>
       <c r="B239" s="1">
-        <v>41.3</v>
+        <v>48.7</v>
       </c>
       <c r="E239" s="1">
         <v>0.393441192</v>
@@ -3027,7 +3027,7 @@
         <v>126.20833330000001</v>
       </c>
       <c r="B240" s="1">
-        <v>42.6</v>
+        <v>47.4</v>
       </c>
       <c r="E240" s="1">
         <v>0.393441192</v>
@@ -3038,7 +3038,7 @@
         <v>126.21875</v>
       </c>
       <c r="B241" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E241" s="1">
         <v>0.393441192</v>
@@ -3060,7 +3060,7 @@
         <v>126.23958330000001</v>
       </c>
       <c r="B243" s="1">
-        <v>44.1</v>
+        <v>45.9</v>
       </c>
       <c r="E243" s="1">
         <v>0.393441192</v>
@@ -3071,7 +3071,7 @@
         <v>126.25</v>
       </c>
       <c r="B244" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E244" s="1">
         <v>0.39352546700000002</v>
@@ -3082,7 +3082,7 @@
         <v>126.26041669999999</v>
       </c>
       <c r="B245" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E245" s="1">
         <v>0.39352546700000002</v>
@@ -3093,7 +3093,7 @@
         <v>126.27083330000001</v>
       </c>
       <c r="B246" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E246" s="1">
         <v>0.39352546700000002</v>
@@ -3104,7 +3104,7 @@
         <v>126.28125</v>
       </c>
       <c r="B247" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E247" s="1">
         <v>0.396299401</v>
@@ -3115,7 +3115,7 @@
         <v>126.29166669999999</v>
       </c>
       <c r="B248" s="1">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="E248" s="1">
         <v>0.396299401</v>
@@ -3126,7 +3126,7 @@
         <v>126.30208330000001</v>
       </c>
       <c r="B249" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E249" s="1">
         <v>0.396299401</v>
@@ -3137,7 +3137,7 @@
         <v>126.3125</v>
       </c>
       <c r="B250" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E250" s="1">
         <v>0.396299401</v>
@@ -3148,7 +3148,7 @@
         <v>126.32291669999999</v>
       </c>
       <c r="B251" s="1">
-        <v>48.8</v>
+        <v>41.2</v>
       </c>
       <c r="E251" s="1">
         <v>0.39360972900000002</v>
@@ -3159,7 +3159,7 @@
         <v>126.33333330000001</v>
       </c>
       <c r="B252" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E252" s="1">
         <v>0.39369397900000003</v>
@@ -3170,7 +3170,7 @@
         <v>126.34375</v>
       </c>
       <c r="B253" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E253" s="1">
         <v>0.39546027500000003</v>
@@ -3181,7 +3181,7 @@
         <v>126.35416669999999</v>
       </c>
       <c r="B254" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E254" s="1">
         <v>0.39554424399999999</v>
@@ -3192,7 +3192,7 @@
         <v>126.36458330000001</v>
       </c>
       <c r="B255" s="1">
-        <v>49.9</v>
+        <v>40.1</v>
       </c>
       <c r="E255" s="1">
         <v>0.39571214500000002</v>
@@ -3203,7 +3203,7 @@
         <v>126.375</v>
       </c>
       <c r="B256" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E256" s="1">
         <v>0.39587999600000001</v>
@@ -3214,7 +3214,7 @@
         <v>126.38541669999999</v>
       </c>
       <c r="B257" s="1">
-        <v>46.3</v>
+        <v>43.7</v>
       </c>
       <c r="E257" s="1">
         <v>0.39604779600000001</v>
@@ -3225,7 +3225,7 @@
         <v>126.39583330000001</v>
       </c>
       <c r="B258" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E258" s="1">
         <v>0.39621554599999997</v>
@@ -3236,7 +3236,7 @@
         <v>126.40625</v>
       </c>
       <c r="B259" s="1">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
       <c r="E259" s="1">
         <v>0.39537629200000002</v>
@@ -3247,7 +3247,7 @@
         <v>126.41666669999999</v>
       </c>
       <c r="B260" s="1">
-        <v>46.9</v>
+        <v>43.1</v>
       </c>
       <c r="E260" s="1">
         <v>0.39571214500000002</v>
@@ -3258,7 +3258,7 @@
         <v>126.42708330000001</v>
       </c>
       <c r="B261" s="1">
-        <v>46.1</v>
+        <v>43.9</v>
       </c>
       <c r="E261" s="1">
         <v>0.39596390199999998</v>
@@ -3269,7 +3269,7 @@
         <v>126.4375</v>
       </c>
       <c r="B262" s="1">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="E262" s="1">
         <v>0.39621554599999997</v>
@@ -3280,7 +3280,7 @@
         <v>126.44791669999999</v>
       </c>
       <c r="B263" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E263" s="1">
         <v>0.39830817200000002</v>
@@ -3291,7 +3291,7 @@
         <v>126.45833330000001</v>
       </c>
       <c r="B264" s="1">
-        <v>45.6</v>
+        <v>44.4</v>
       </c>
       <c r="E264" s="1">
         <v>0.39571214500000002</v>
@@ -3302,7 +3302,7 @@
         <v>126.46875</v>
       </c>
       <c r="B265" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E265" s="1">
         <v>0.39587999600000001</v>
@@ -3313,7 +3313,7 @@
         <v>126.47916669999999</v>
       </c>
       <c r="B266" s="1">
-        <v>42.9</v>
+        <v>47.1</v>
       </c>
       <c r="E266" s="1">
         <v>0.39613167700000002</v>
@@ -3324,7 +3324,7 @@
         <v>126.48958330000001</v>
       </c>
       <c r="B267" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E267" s="1">
         <v>0.396383245</v>
@@ -3335,7 +3335,7 @@
         <v>126.5</v>
       </c>
       <c r="B268" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E268" s="1">
         <v>0.39847524400000001</v>
@@ -3346,7 +3346,7 @@
         <v>126.51041669999999</v>
       </c>
       <c r="B269" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E269" s="1">
         <v>0.39571214500000002</v>
@@ -3357,7 +3357,7 @@
         <v>126.52083330000001</v>
       </c>
       <c r="B270" s="1">
-        <v>41.6</v>
+        <v>48.4</v>
       </c>
       <c r="E270" s="1">
         <v>0.39789027300000002</v>
@@ -3368,7 +3368,7 @@
         <v>126.53125</v>
       </c>
       <c r="B271" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E271" s="1">
         <v>0.39814105</v>
@@ -3379,7 +3379,7 @@
         <v>126.54166669999999</v>
       </c>
       <c r="B272" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E272" s="1">
         <v>0.39830817200000002</v>
@@ -3390,7 +3390,7 @@
         <v>126.55208330000001</v>
       </c>
       <c r="B273" s="1">
-        <v>38.4</v>
+        <v>51.6</v>
       </c>
       <c r="E273" s="1">
         <v>0.39847524400000001</v>
@@ -3401,7 +3401,7 @@
         <v>126.5625</v>
       </c>
       <c r="B274" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E274" s="1">
         <v>0.39546027500000003</v>
@@ -3412,7 +3412,7 @@
         <v>126.57291669999999</v>
       </c>
       <c r="B275" s="1">
-        <v>40.1</v>
+        <v>49.9</v>
       </c>
       <c r="E275" s="1">
         <v>0.39579607700000002</v>
@@ -3423,7 +3423,7 @@
         <v>126.58333330000001</v>
       </c>
       <c r="B276" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E276" s="1">
         <v>0.394788062</v>
@@ -3434,7 +3434,7 @@
         <v>126.59375</v>
       </c>
       <c r="B277" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E277" s="1">
         <v>0.39217552500000002</v>
@@ -3445,7 +3445,7 @@
         <v>126.60416669999999</v>
       </c>
       <c r="B278" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E278" s="1">
         <v>0.38938081699999999</v>
@@ -3456,7 +3456,7 @@
         <v>126.61458330000001</v>
       </c>
       <c r="B279" s="1">
-        <v>40.799999999999997</v>
+        <v>49.2</v>
       </c>
       <c r="E279" s="1">
         <v>0.38563232800000002</v>
@@ -3467,7 +3467,7 @@
         <v>126.625</v>
       </c>
       <c r="B280" s="1">
-        <v>41.4</v>
+        <v>48.6</v>
       </c>
       <c r="E280" s="1">
         <v>0.38297584499999998</v>
@@ -3478,7 +3478,7 @@
         <v>126.63541669999999</v>
       </c>
       <c r="B281" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E281" s="1">
         <v>0.38022</v>
@@ -3489,7 +3489,7 @@
         <v>126.64583330000001</v>
       </c>
       <c r="B282" s="1">
-        <v>42.7</v>
+        <v>47.3</v>
       </c>
       <c r="E282" s="1">
         <v>0.374404036</v>
@@ -3500,7 +3500,7 @@
         <v>126.65625</v>
       </c>
       <c r="B283" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E283" s="1">
         <v>0.37666844300000002</v>
@@ -3511,7 +3511,7 @@
         <v>126.66666669999999</v>
       </c>
       <c r="B284" s="1">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="E284" s="1">
         <v>0.37388011999999998</v>
@@ -3522,7 +3522,7 @@
         <v>126.67708330000001</v>
       </c>
       <c r="B285" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E285" s="1">
         <v>0.37098936399999999</v>
@@ -3533,7 +3533,7 @@
         <v>126.6875</v>
       </c>
       <c r="B286" s="1">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E286" s="1">
         <v>0.36834771300000002</v>
@@ -3544,7 +3544,7 @@
         <v>126.69791669999999</v>
       </c>
       <c r="B287" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E287" s="1">
         <v>0.36852423299999998</v>
@@ -3555,7 +3555,7 @@
         <v>126.70833330000001</v>
       </c>
       <c r="B288" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E288" s="1">
         <v>0.36560409399999999</v>
@@ -3566,7 +3566,7 @@
         <v>126.71875</v>
       </c>
       <c r="B289" s="1">
-        <v>46.9</v>
+        <v>43.1</v>
       </c>
       <c r="E289" s="1">
         <v>0.36578153200000002</v>
@@ -3577,7 +3577,7 @@
         <v>126.72916669999999</v>
       </c>
       <c r="B290" s="1">
-        <v>47.6</v>
+        <v>42.4</v>
       </c>
       <c r="E290" s="1">
         <v>0.36284611300000003</v>
@@ -3588,7 +3588,7 @@
         <v>126.73958330000001</v>
       </c>
       <c r="B291" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E291" s="1">
         <v>0.36302448500000001</v>
@@ -3599,7 +3599,7 @@
         <v>126.75</v>
       </c>
       <c r="B292" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E292" s="1">
         <v>0.36025286400000001</v>
@@ -3610,7 +3610,7 @@
         <v>126.76041669999999</v>
       </c>
       <c r="B293" s="1">
-        <v>49.9</v>
+        <v>40.1</v>
       </c>
       <c r="E293" s="1">
         <v>0.36195334099999998</v>
@@ -3621,7 +3621,7 @@
         <v>126.77083330000001</v>
       </c>
       <c r="B294" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E294" s="1">
         <v>0.36052172900000001</v>
@@ -3632,7 +3632,7 @@
         <v>126.78125</v>
       </c>
       <c r="B295" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E295" s="1">
         <v>0.35737630100000001</v>
@@ -3643,7 +3643,7 @@
         <v>126.79166669999999</v>
       </c>
       <c r="B296" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E296" s="1">
         <v>0.35746643500000003</v>
@@ -3654,7 +3654,7 @@
         <v>126.80208330000001</v>
       </c>
       <c r="B297" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E297" s="1">
         <v>0.357556553</v>
@@ -3665,7 +3665,7 @@
         <v>126.8125</v>
       </c>
       <c r="B298" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E298" s="1">
         <v>0.35737630100000001</v>
@@ -3676,7 +3676,7 @@
         <v>126.82291669999999</v>
       </c>
       <c r="B299" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E299" s="1">
         <v>0.35737630100000001</v>
@@ -3687,7 +3687,7 @@
         <v>126.83333330000001</v>
       </c>
       <c r="B300" s="1">
-        <v>48.4</v>
+        <v>41.6</v>
       </c>
       <c r="E300" s="1">
         <v>0.35566076899999999</v>
@@ -3698,7 +3698,7 @@
         <v>126.84375</v>
       </c>
       <c r="B301" s="1">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
       <c r="E301" s="1">
         <v>0.35275851000000003</v>
@@ -3709,7 +3709,7 @@
         <v>126.85416669999999</v>
       </c>
       <c r="B302" s="1">
-        <v>47.9</v>
+        <v>42.1</v>
       </c>
       <c r="E302" s="1">
         <v>0.35257657399999998</v>
@@ -3720,7 +3720,7 @@
         <v>126.86458330000001</v>
       </c>
       <c r="B303" s="1">
-        <v>47.6</v>
+        <v>42.4</v>
       </c>
       <c r="E303" s="1">
         <v>0.35529887799999998</v>
@@ -3731,7 +3731,7 @@
         <v>126.875</v>
       </c>
       <c r="B304" s="1">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="E304" s="1">
         <v>0.35538937399999998</v>
@@ -3742,7 +3742,7 @@
         <v>126.88541669999999</v>
       </c>
       <c r="B305" s="1">
-        <v>45.8</v>
+        <v>44.2</v>
       </c>
       <c r="E305" s="1">
         <v>0.355208366</v>
@@ -3753,7 +3753,7 @@
         <v>126.89583330000001</v>
       </c>
       <c r="B306" s="1">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="E306" s="1">
         <v>0.35511783699999999</v>
@@ -3764,7 +3764,7 @@
         <v>126.90625</v>
       </c>
       <c r="B307" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E307" s="1">
         <v>0.35321306699999999</v>
@@ -3775,7 +3775,7 @@
         <v>126.91666669999999</v>
       </c>
       <c r="B308" s="1">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="E308" s="1">
         <v>0.353122188</v>
@@ -3786,7 +3786,7 @@
         <v>126.92708330000001</v>
       </c>
       <c r="B309" s="1">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="E309" s="1">
         <v>0.35321306699999999</v>
@@ -3797,7 +3797,7 @@
         <v>126.9375</v>
       </c>
       <c r="B310" s="1">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="E310" s="1">
         <v>0.353122188</v>
@@ -3808,7 +3808,7 @@
         <v>126.94791669999999</v>
       </c>
       <c r="B311" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E311" s="1">
         <v>0.35294038100000003</v>
@@ -3819,7 +3819,7 @@
         <v>126.95833330000001</v>
       </c>
       <c r="B312" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E312" s="1">
         <v>0.35284945299999998</v>
@@ -3830,7 +3830,7 @@
         <v>126.96875</v>
       </c>
       <c r="B313" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E313" s="1">
         <v>0.35294038100000003</v>
@@ -3841,7 +3841,7 @@
         <v>126.97916669999999</v>
       </c>
       <c r="B314" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E314" s="1">
         <v>0.35294038100000003</v>
@@ -3852,7 +3852,7 @@
         <v>126.98958330000001</v>
       </c>
       <c r="B315" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E315" s="1">
         <v>0.35275851000000003</v>
@@ -3863,7 +3863,7 @@
         <v>127</v>
       </c>
       <c r="B316" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E316" s="1">
         <v>0.35266755</v>
@@ -3874,7 +3874,7 @@
         <v>127.01041669999999</v>
       </c>
       <c r="B317" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E317" s="1">
         <v>0.35257657399999998</v>
@@ -3885,7 +3885,7 @@
         <v>127.02083330000001</v>
       </c>
       <c r="B318" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E318" s="1">
         <v>0.35275851000000003</v>
@@ -3896,7 +3896,7 @@
         <v>127.03125</v>
       </c>
       <c r="B319" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E319" s="1">
         <v>0.35266755</v>
@@ -3907,7 +3907,7 @@
         <v>127.04166669999999</v>
       </c>
       <c r="B320" s="1">
-        <v>41.1</v>
+        <v>48.9</v>
       </c>
       <c r="E320" s="1">
         <v>0.35084496399999998</v>
@@ -3918,7 +3918,7 @@
         <v>127.05208330000001</v>
       </c>
       <c r="B321" s="1">
-        <v>40.799999999999997</v>
+        <v>49.2</v>
       </c>
       <c r="E321" s="1">
         <v>0.35075366499999999</v>
@@ -3929,7 +3929,7 @@
         <v>127.0625</v>
       </c>
       <c r="B322" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E322" s="1">
         <v>0.35075366499999999</v>
@@ -3940,7 +3940,7 @@
         <v>127.07291669999999</v>
       </c>
       <c r="B323" s="1">
-        <v>41.6</v>
+        <v>48.4</v>
       </c>
       <c r="E323" s="1">
         <v>0.35084496399999998</v>
@@ -3951,7 +3951,7 @@
         <v>127.08333330000001</v>
       </c>
       <c r="B324" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E324" s="1">
         <v>0.35075366499999999</v>
@@ -3962,7 +3962,7 @@
         <v>127.09375</v>
       </c>
       <c r="B325" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E325" s="1">
         <v>0.35066234899999998</v>
@@ -3973,7 +3973,7 @@
         <v>127.10416669999999</v>
       </c>
       <c r="B326" s="1">
-        <v>42.7</v>
+        <v>47.3</v>
       </c>
       <c r="E326" s="1">
         <v>0.35057101699999998</v>
@@ -3984,7 +3984,7 @@
         <v>127.11458330000001</v>
       </c>
       <c r="B327" s="1">
-        <v>43.4</v>
+        <v>46.6</v>
       </c>
       <c r="E327" s="1">
         <v>0.35047966800000002</v>
@@ -3995,7 +3995,7 @@
         <v>127.125</v>
       </c>
       <c r="B328" s="1">
-        <v>43.6</v>
+        <v>46.4</v>
       </c>
       <c r="E328" s="1">
         <v>0.35047966800000002</v>
@@ -4006,7 +4006,7 @@
         <v>127.13541669999999</v>
       </c>
       <c r="B329" s="1">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="E329" s="1">
         <v>0.35038830399999998</v>
@@ -4017,7 +4017,7 @@
         <v>127.14583330000001</v>
       </c>
       <c r="B330" s="1">
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
       <c r="E330" s="1">
         <v>0.35130121800000003</v>
@@ -4028,7 +4028,7 @@
         <v>127.15625</v>
       </c>
       <c r="B331" s="1">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E331" s="1">
         <v>0.34874093900000003</v>
@@ -4039,7 +4039,7 @@
         <v>127.16666669999999</v>
       </c>
       <c r="B332" s="1">
-        <v>47.4</v>
+        <v>42.6</v>
       </c>
       <c r="E332" s="1">
         <v>0.34864926299999999</v>
@@ -4050,7 +4050,7 @@
         <v>127.17708330000001</v>
       </c>
       <c r="B333" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E333" s="1">
         <v>0.35130121800000003</v>
@@ -4061,7 +4061,7 @@
         <v>127.1875</v>
       </c>
       <c r="B334" s="1">
-        <v>47.9</v>
+        <v>42.1</v>
       </c>
       <c r="E334" s="1">
         <v>0.34855756999999998</v>
@@ -4072,7 +4072,7 @@
         <v>127.19791669999999</v>
       </c>
       <c r="B335" s="1">
-        <v>47.6</v>
+        <v>42.4</v>
       </c>
       <c r="E335" s="1">
         <v>0.34864926299999999</v>
@@ -4083,7 +4083,7 @@
         <v>127.20833330000001</v>
       </c>
       <c r="B336" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E336" s="1">
         <v>0.35121000000000002</v>
@@ -4094,7 +4094,7 @@
         <v>127.21875</v>
       </c>
       <c r="B337" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E337" s="1">
         <v>0.34855756999999998</v>
@@ -4105,7 +4105,7 @@
         <v>127.22916669999999</v>
       </c>
       <c r="B338" s="1">
-        <v>49.7</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E338" s="1">
         <v>0.34846586099999999</v>
@@ -4116,7 +4116,7 @@
         <v>127.23958330000001</v>
       </c>
       <c r="B339" s="1">
-        <v>48.9</v>
+        <v>41.1</v>
       </c>
       <c r="E339" s="1">
         <v>0.34846586099999999</v>
@@ -4127,7 +4127,7 @@
         <v>127.25</v>
       </c>
       <c r="B340" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E340" s="1">
         <v>0.35102751500000001</v>
@@ -4138,7 +4138,7 @@
         <v>127.26041669999999</v>
       </c>
       <c r="B341" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E341" s="1">
         <v>0.34672024000000001</v>
@@ -4149,7 +4149,7 @@
         <v>127.27083330000001</v>
       </c>
       <c r="B342" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E342" s="1">
         <v>0.34681226399999998</v>
@@ -4160,7 +4160,7 @@
         <v>127.28125</v>
       </c>
       <c r="B343" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E343" s="1">
         <v>0.34681226399999998</v>
@@ -4171,7 +4171,7 @@
         <v>127.29166669999999</v>
       </c>
       <c r="B344" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E344" s="1">
         <v>0.34672024000000001</v>
@@ -4182,7 +4182,7 @@
         <v>127.30208330000001</v>
       </c>
       <c r="B345" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E345" s="1">
         <v>0.34672024000000001</v>
@@ -4193,7 +4193,7 @@
         <v>127.3125</v>
       </c>
       <c r="B346" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E346" s="1">
         <v>0.34672024000000001</v>
@@ -4204,7 +4204,7 @@
         <v>127.32291669999999</v>
       </c>
       <c r="B347" s="1">
-        <v>47.9</v>
+        <v>42.1</v>
       </c>
       <c r="E347" s="1">
         <v>0.34672024000000001</v>
@@ -4215,7 +4215,7 @@
         <v>127.33333330000001</v>
       </c>
       <c r="B348" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E348" s="1">
         <v>0.34837413499999997</v>
@@ -4226,7 +4226,7 @@
         <v>127.34375</v>
       </c>
       <c r="B349" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E349" s="1">
         <v>0.34846586099999999</v>
@@ -4237,7 +4237,7 @@
         <v>127.35416669999999</v>
       </c>
       <c r="B350" s="1">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E350" s="1">
         <v>0.34846586099999999</v>
@@ -4248,7 +4248,7 @@
         <v>127.36458330000001</v>
       </c>
       <c r="B351" s="1">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E351" s="1">
         <v>0.34855756999999998</v>
@@ -4259,7 +4259,7 @@
         <v>127.375</v>
       </c>
       <c r="B352" s="1">
-        <v>44.1</v>
+        <v>45.9</v>
       </c>
       <c r="E352" s="1">
         <v>0.34773159199999998</v>
@@ -4281,7 +4281,7 @@
         <v>127.39583330000001</v>
       </c>
       <c r="B354" s="1">
-        <v>43.4</v>
+        <v>46.6</v>
       </c>
       <c r="E354" s="1">
         <v>0.34965679700000002</v>
@@ -4292,7 +4292,7 @@
         <v>127.40625</v>
       </c>
       <c r="B355" s="1">
-        <v>42.8</v>
+        <v>47.2</v>
       </c>
       <c r="E355" s="1">
         <v>0.34718019500000002</v>
@@ -4303,7 +4303,7 @@
         <v>127.41666669999999</v>
       </c>
       <c r="B356" s="1">
-        <v>41.9</v>
+        <v>48.1</v>
       </c>
       <c r="E356" s="1">
         <v>0.34910748000000003</v>
@@ -4314,7 +4314,7 @@
         <v>127.42708330000001</v>
       </c>
       <c r="B357" s="1">
-        <v>41.5</v>
+        <v>48.5</v>
       </c>
       <c r="E357" s="1">
         <v>0.34938221200000003</v>
@@ -4325,7 +4325,7 @@
         <v>127.4375</v>
       </c>
       <c r="B358" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E358" s="1">
         <v>0.34662819900000003</v>
@@ -4336,7 +4336,7 @@
         <v>127.44791669999999</v>
       </c>
       <c r="B359" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E359" s="1">
         <v>0.34864926299999999</v>
@@ -4347,7 +4347,7 @@
         <v>127.45833330000001</v>
       </c>
       <c r="B360" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E360" s="1">
         <v>0.348924242</v>
@@ -4358,7 +4358,7 @@
         <v>127.46875</v>
       </c>
       <c r="B361" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E361" s="1">
         <v>0.34901586899999998</v>
@@ -4369,7 +4369,7 @@
         <v>127.47916669999999</v>
       </c>
       <c r="B362" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E362" s="1">
         <v>0.34635197600000001</v>
@@ -4380,7 +4380,7 @@
         <v>127.48958330000001</v>
       </c>
       <c r="B363" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E363" s="1">
         <v>0.34846586099999999</v>
@@ -4391,7 +4391,7 @@
         <v>127.5</v>
       </c>
       <c r="B364" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E364" s="1">
         <v>0.34579907799999998</v>
@@ -4402,7 +4402,7 @@
         <v>127.51041669999999</v>
       </c>
       <c r="B365" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E365" s="1">
         <v>0.34607560199999998</v>
@@ -4413,7 +4413,7 @@
         <v>127.52083330000001</v>
       </c>
       <c r="B366" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E366" s="1">
         <v>0.34506094199999998</v>
@@ -4424,7 +4424,7 @@
         <v>127.53125</v>
       </c>
       <c r="B367" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E367" s="1">
         <v>0.345614645</v>
@@ -4435,7 +4435,7 @@
         <v>127.54166669999999</v>
       </c>
       <c r="B368" s="1">
-        <v>41.1</v>
+        <v>48.9</v>
       </c>
       <c r="E368" s="1">
         <v>0.34459906000000001</v>
@@ -4446,7 +4446,7 @@
         <v>127.55208330000001</v>
       </c>
       <c r="B369" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E369" s="1">
         <v>0.344783864</v>
@@ -4457,7 +4457,7 @@
         <v>127.5625</v>
       </c>
       <c r="B370" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E370" s="1">
         <v>0.34699626300000003</v>
@@ -4468,7 +4468,7 @@
         <v>127.57291669999999</v>
       </c>
       <c r="B371" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E371" s="1">
         <v>0.34754785900000001</v>
@@ -4479,7 +4479,7 @@
         <v>127.58333330000001</v>
       </c>
       <c r="B372" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E372" s="1">
         <v>0.34635197600000001</v>
@@ -4490,7 +4490,7 @@
         <v>127.59375</v>
       </c>
       <c r="B373" s="1">
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="E373" s="1">
         <v>0.34690427200000001</v>
@@ -4501,7 +4501,7 @@
         <v>127.60416669999999</v>
       </c>
       <c r="B374" s="1">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
       <c r="E374" s="1">
         <v>0.34395171600000002</v>
@@ -4512,7 +4512,7 @@
         <v>127.61458330000001</v>
       </c>
       <c r="B375" s="1">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="E375" s="1">
         <v>0.34126097999999999</v>
@@ -4523,7 +4523,7 @@
         <v>127.625</v>
       </c>
       <c r="B376" s="1">
-        <v>44.4</v>
+        <v>45.6</v>
       </c>
       <c r="E376" s="1">
         <v>0.34135400399999999</v>
@@ -4534,7 +4534,7 @@
         <v>127.63541669999999</v>
       </c>
       <c r="B377" s="1">
-        <v>46.2</v>
+        <v>43.8</v>
       </c>
       <c r="E377" s="1">
         <v>0.34367402899999999</v>
@@ -4545,7 +4545,7 @@
         <v>127.64583330000001</v>
       </c>
       <c r="B378" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E378" s="1">
         <v>0.34051616899999998</v>
@@ -4556,7 +4556,7 @@
         <v>127.65625</v>
       </c>
       <c r="B379" s="1">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
       <c r="E379" s="1">
         <v>0.34060933100000002</v>
@@ -4567,7 +4567,7 @@
         <v>127.66666669999999</v>
       </c>
       <c r="B380" s="1">
-        <v>47.6</v>
+        <v>42.4</v>
       </c>
       <c r="E380" s="1">
         <v>0.34116793899999998</v>
@@ -4578,7 +4578,7 @@
         <v>127.67708330000001</v>
       </c>
       <c r="B381" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E381" s="1">
         <v>0.34126097999999999</v>
@@ -4589,7 +4589,7 @@
         <v>127.6875</v>
       </c>
       <c r="B382" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E382" s="1">
         <v>0.33808786200000002</v>
@@ -4600,7 +4600,7 @@
         <v>127.69791669999999</v>
       </c>
       <c r="B383" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E383" s="1">
         <v>0.33818147599999998</v>
@@ -4611,7 +4611,7 @@
         <v>127.70833330000001</v>
       </c>
       <c r="B384" s="1">
-        <v>49.7</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E384" s="1">
         <v>0.33874279699999998</v>
@@ -4622,7 +4622,7 @@
         <v>127.71875</v>
       </c>
       <c r="B385" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E385" s="1">
         <v>0.33874279699999998</v>
@@ -4633,7 +4633,7 @@
         <v>127.72916669999999</v>
       </c>
       <c r="B386" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E386" s="1">
         <v>0.33780691200000001</v>
@@ -4644,7 +4644,7 @@
         <v>127.73958330000001</v>
       </c>
       <c r="B387" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E387" s="1">
         <v>0.33790057899999998</v>
@@ -4655,7 +4655,7 @@
         <v>127.75</v>
       </c>
       <c r="B388" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E388" s="1">
         <v>0.335177049</v>
@@ -4666,7 +4666,7 @@
         <v>127.76041669999999</v>
       </c>
       <c r="B389" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E389" s="1">
         <v>0.33555359600000001</v>
@@ -4677,7 +4677,7 @@
         <v>127.77083330000001</v>
       </c>
       <c r="B390" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E390" s="1">
         <v>0.33592985800000003</v>
@@ -4688,7 +4688,7 @@
         <v>127.78125</v>
       </c>
       <c r="B391" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E391" s="1">
         <v>0.33300633800000001</v>
@@ -4699,7 +4699,7 @@
         <v>127.79166669999999</v>
       </c>
       <c r="B392" s="1">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="E392" s="1">
         <v>0.33338453699999998</v>
@@ -4710,7 +4710,7 @@
         <v>127.80208330000001</v>
       </c>
       <c r="B393" s="1">
-        <v>48.1</v>
+        <v>41.9</v>
       </c>
       <c r="E393" s="1">
         <v>0.33177518700000003</v>
@@ -4721,7 +4721,7 @@
         <v>127.8125</v>
       </c>
       <c r="B394" s="1">
-        <v>48.8</v>
+        <v>41.2</v>
       </c>
       <c r="E394" s="1">
         <v>0.32882688599999998</v>
@@ -4732,7 +4732,7 @@
         <v>127.82291669999999</v>
       </c>
       <c r="B395" s="1">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="E395" s="1">
         <v>0.32911298</v>
@@ -4743,7 +4743,7 @@
         <v>127.83333330000001</v>
       </c>
       <c r="B396" s="1">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
       <c r="E396" s="1">
         <v>0.32681953200000002</v>
@@ -4754,7 +4754,7 @@
         <v>127.84375</v>
       </c>
       <c r="B397" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E397" s="1">
         <v>0.32701106400000002</v>
@@ -4765,7 +4765,7 @@
         <v>127.85416669999999</v>
       </c>
       <c r="B398" s="1">
-        <v>45.8</v>
+        <v>44.2</v>
       </c>
       <c r="E398" s="1">
         <v>0.327298221</v>
@@ -4776,7 +4776,7 @@
         <v>127.86458330000001</v>
       </c>
       <c r="B399" s="1">
-        <v>43.4</v>
+        <v>46.6</v>
       </c>
       <c r="E399" s="1">
         <v>0.32710680199999997</v>
@@ -4787,7 +4787,7 @@
         <v>127.875</v>
       </c>
       <c r="B400" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E400" s="1">
         <v>0.32470769700000002</v>
@@ -4798,7 +4798,7 @@
         <v>127.88541669999999</v>
       </c>
       <c r="B401" s="1">
-        <v>43.2</v>
+        <v>46.8</v>
       </c>
       <c r="E401" s="1">
         <v>0.32316603500000002</v>
@@ -4809,7 +4809,7 @@
         <v>127.89583330000001</v>
       </c>
       <c r="B402" s="1">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="E402" s="1">
         <v>0.32297298200000002</v>
@@ -4820,7 +4820,7 @@
         <v>127.90625</v>
       </c>
       <c r="B403" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E403" s="1">
         <v>0.32316603500000002</v>
@@ -4831,7 +4831,7 @@
         <v>127.91666669999999</v>
       </c>
       <c r="B404" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E404" s="1">
         <v>0.32345547000000002</v>
@@ -4842,7 +4842,7 @@
         <v>127.92708330000001</v>
       </c>
       <c r="B405" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E405" s="1">
         <v>0.32152262599999998</v>
@@ -4853,7 +4853,7 @@
         <v>127.9375</v>
       </c>
       <c r="B406" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E406" s="1">
         <v>0.32181304500000002</v>
